--- a/data/HAB_resolvablelakes_2022.xlsx
+++ b/data/HAB_resolvablelakes_2022.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L232"/>
+  <dimension ref="A1:L340"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8818,7 +8818,6 @@
       <c r="C226" t="n">
         <v>4680000</v>
       </c>
-      <c r="D226" t="inlineStr"/>
       <c r="E226" t="n">
         <v>6309.57666016</v>
       </c>
@@ -8856,7 +8855,6 @@
       <c r="C227" t="n">
         <v>1440000</v>
       </c>
-      <c r="D227" t="inlineStr"/>
       <c r="E227" t="n">
         <v>6309.57666016</v>
       </c>
@@ -8894,7 +8892,6 @@
       <c r="C228" t="n">
         <v>5760000</v>
       </c>
-      <c r="D228" t="inlineStr"/>
       <c r="E228" t="n">
         <v>6309.57666016</v>
       </c>
@@ -8932,7 +8929,6 @@
       <c r="C229" t="n">
         <v>26550000</v>
       </c>
-      <c r="D229" t="inlineStr"/>
       <c r="E229" t="n">
         <v>6309.57666016</v>
       </c>
@@ -8970,7 +8966,6 @@
       <c r="C230" t="n">
         <v>49410000</v>
       </c>
-      <c r="D230" t="inlineStr"/>
       <c r="E230" t="n">
         <v>6309.57666016</v>
       </c>
@@ -9008,7 +9003,6 @@
       <c r="C231" t="n">
         <v>4320000</v>
       </c>
-      <c r="D231" t="inlineStr"/>
       <c r="E231" t="n">
         <v>6309.57666016</v>
       </c>
@@ -9046,7 +9040,6 @@
       <c r="C232" t="n">
         <v>10890000</v>
       </c>
-      <c r="D232" t="inlineStr"/>
       <c r="E232" t="n">
         <v>6309.57666016</v>
       </c>
@@ -9070,6 +9063,4029 @@
       </c>
       <c r="L232" s="12" t="n">
         <v>44580</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Alkali Lake_01116863</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>27</v>
+      </c>
+      <c r="C233" t="n">
+        <v>2430000</v>
+      </c>
+      <c r="E233" t="n">
+        <v>151356.234375</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1819701.875</v>
+      </c>
+      <c r="G233" t="n">
+        <v>1668345.64062</v>
+      </c>
+      <c r="H233" t="n">
+        <v>677569.519097</v>
+      </c>
+      <c r="I233" t="n">
+        <v>434939.809088</v>
+      </c>
+      <c r="J233" t="n">
+        <v>20</v>
+      </c>
+      <c r="K233" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L233" s="12" t="n">
+        <v>44581</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Renner Lake_00267175</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>3</v>
+      </c>
+      <c r="C234" t="n">
+        <v>270000</v>
+      </c>
+      <c r="E234" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F234" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0</v>
+      </c>
+      <c r="H234" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>20</v>
+      </c>
+      <c r="K234" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L234" s="12" t="n">
+        <v>44581</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Summer Lake_01150595</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>82</v>
+      </c>
+      <c r="C235" t="n">
+        <v>7380000</v>
+      </c>
+      <c r="E235" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F235" t="n">
+        <v>164437.203125</v>
+      </c>
+      <c r="G235" t="n">
+        <v>158127.626465</v>
+      </c>
+      <c r="H235" t="n">
+        <v>34218.3198599</v>
+      </c>
+      <c r="I235" t="n">
+        <v>41925.8279688</v>
+      </c>
+      <c r="J235" t="n">
+        <v>20</v>
+      </c>
+      <c r="K235" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L235" s="12" t="n">
+        <v>44581</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Warm Springs Reservoir_01128656</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>76</v>
+      </c>
+      <c r="C236" t="n">
+        <v>6840000</v>
+      </c>
+      <c r="E236" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F236" t="n">
+        <v>164437.203125</v>
+      </c>
+      <c r="G236" t="n">
+        <v>158127.626465</v>
+      </c>
+      <c r="H236" t="n">
+        <v>11284.3450799</v>
+      </c>
+      <c r="I236" t="n">
+        <v>21810.9938338</v>
+      </c>
+      <c r="J236" t="n">
+        <v>21</v>
+      </c>
+      <c r="K236" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L236" s="12" t="n">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Beulah Reservoir_01117569</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>39</v>
+      </c>
+      <c r="C237" t="n">
+        <v>3510000</v>
+      </c>
+      <c r="E237" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F237" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0</v>
+      </c>
+      <c r="H237" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>21</v>
+      </c>
+      <c r="K237" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L237" s="12" t="n">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Waldo Lake_01151818</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>102</v>
+      </c>
+      <c r="C238" t="n">
+        <v>9180000</v>
+      </c>
+      <c r="E238" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F238" t="n">
+        <v>376704</v>
+      </c>
+      <c r="G238" t="n">
+        <v>370394.42334</v>
+      </c>
+      <c r="H238" t="n">
+        <v>23228.9008693</v>
+      </c>
+      <c r="I238" t="n">
+        <v>49668.2749133</v>
+      </c>
+      <c r="J238" t="n">
+        <v>21</v>
+      </c>
+      <c r="K238" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L238" s="12" t="n">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Cold Springs Reservoir_01119125</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>27</v>
+      </c>
+      <c r="C239" t="n">
+        <v>2430000</v>
+      </c>
+      <c r="E239" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F239" t="n">
+        <v>92045</v>
+      </c>
+      <c r="G239" t="n">
+        <v>85735.42333980001</v>
+      </c>
+      <c r="H239" t="n">
+        <v>12560.8479456</v>
+      </c>
+      <c r="I239" t="n">
+        <v>20268.0882791</v>
+      </c>
+      <c r="J239" t="n">
+        <v>21</v>
+      </c>
+      <c r="K239" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L239" s="12" t="n">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Crescent Lake_01158186</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>58</v>
+      </c>
+      <c r="C240" t="n">
+        <v>5220000</v>
+      </c>
+      <c r="E240" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F240" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0</v>
+      </c>
+      <c r="H240" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>21</v>
+      </c>
+      <c r="K240" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L240" s="12" t="n">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Wickiup Reservoir_01161711</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>13</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1170000</v>
+      </c>
+      <c r="E241" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F241" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0</v>
+      </c>
+      <c r="H241" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>21</v>
+      </c>
+      <c r="K241" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L241" s="12" t="n">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Paulina Lake_01147502</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>43</v>
+      </c>
+      <c r="C242" t="n">
+        <v>3870000</v>
+      </c>
+      <c r="E242" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F242" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0</v>
+      </c>
+      <c r="H242" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>21</v>
+      </c>
+      <c r="K242" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L242" s="12" t="n">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Odell Lake_01147159</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>13</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1170000</v>
+      </c>
+      <c r="E243" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F243" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0</v>
+      </c>
+      <c r="H243" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>21</v>
+      </c>
+      <c r="K243" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L243" s="12" t="n">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Hills Creek Lake_01158881</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>21</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1890000</v>
+      </c>
+      <c r="E244" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F244" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0</v>
+      </c>
+      <c r="H244" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>21</v>
+      </c>
+      <c r="K244" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L244" s="12" t="n">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Lost Creek Lake_01158890</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>83</v>
+      </c>
+      <c r="C245" t="n">
+        <v>7470000</v>
+      </c>
+      <c r="E245" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F245" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0</v>
+      </c>
+      <c r="H245" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>21</v>
+      </c>
+      <c r="K245" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L245" s="12" t="n">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Malheur Lake_01123710</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>571</v>
+      </c>
+      <c r="C246" t="n">
+        <v>51390000</v>
+      </c>
+      <c r="E246" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F246" t="n">
+        <v>216770.515625</v>
+      </c>
+      <c r="G246" t="n">
+        <v>210460.938965</v>
+      </c>
+      <c r="H246" t="n">
+        <v>40766.3185347</v>
+      </c>
+      <c r="I246" t="n">
+        <v>44794.5575758</v>
+      </c>
+      <c r="J246" t="n">
+        <v>21</v>
+      </c>
+      <c r="K246" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L246" s="12" t="n">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Foster Lake_01158892</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>22</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1980000</v>
+      </c>
+      <c r="E247" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F247" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0</v>
+      </c>
+      <c r="H247" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>21</v>
+      </c>
+      <c r="K247" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L247" s="12" t="n">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Goose Lake_00224325</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>441</v>
+      </c>
+      <c r="C248" t="n">
+        <v>39690000</v>
+      </c>
+      <c r="E248" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F248" t="n">
+        <v>235505.046875</v>
+      </c>
+      <c r="G248" t="n">
+        <v>229195.470215</v>
+      </c>
+      <c r="H248" t="n">
+        <v>19374.2736412</v>
+      </c>
+      <c r="I248" t="n">
+        <v>33268.5641673</v>
+      </c>
+      <c r="J248" t="n">
+        <v>21</v>
+      </c>
+      <c r="K248" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L248" s="12" t="n">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Crump Lake_01119601</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>6</v>
+      </c>
+      <c r="C249" t="n">
+        <v>540000</v>
+      </c>
+      <c r="E249" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F249" t="n">
+        <v>75857.78125</v>
+      </c>
+      <c r="G249" t="n">
+        <v>69548.20458980001</v>
+      </c>
+      <c r="H249" t="n">
+        <v>34160.8898112</v>
+      </c>
+      <c r="I249" t="n">
+        <v>28734.3522125</v>
+      </c>
+      <c r="J249" t="n">
+        <v>21</v>
+      </c>
+      <c r="K249" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L249" s="12" t="n">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Upper Klamath Lake_01151685</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C250" t="n">
+        <v>181620000</v>
+      </c>
+      <c r="E250" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F250" t="n">
+        <v>398107.53125</v>
+      </c>
+      <c r="G250" t="n">
+        <v>391797.95459</v>
+      </c>
+      <c r="H250" t="n">
+        <v>14340.0780984</v>
+      </c>
+      <c r="I250" t="n">
+        <v>30221.8318849</v>
+      </c>
+      <c r="J250" t="n">
+        <v>21</v>
+      </c>
+      <c r="K250" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L250" s="12" t="n">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Henry Hagg Lake_01158095</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>27</v>
+      </c>
+      <c r="C251" t="n">
+        <v>2430000</v>
+      </c>
+      <c r="E251" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F251" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0</v>
+      </c>
+      <c r="H251" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>21</v>
+      </c>
+      <c r="K251" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L251" s="12" t="n">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Lake Abert_01116755</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>608</v>
+      </c>
+      <c r="C252" t="n">
+        <v>54720000</v>
+      </c>
+      <c r="E252" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F252" t="n">
+        <v>654636.5</v>
+      </c>
+      <c r="G252" t="n">
+        <v>648326.92334</v>
+      </c>
+      <c r="H252" t="n">
+        <v>36060.7149586</v>
+      </c>
+      <c r="I252" t="n">
+        <v>72872.6033087</v>
+      </c>
+      <c r="J252" t="n">
+        <v>21</v>
+      </c>
+      <c r="K252" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L252" s="12" t="n">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Alkali Lake_01116863</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>29</v>
+      </c>
+      <c r="C253" t="n">
+        <v>2610000</v>
+      </c>
+      <c r="E253" t="n">
+        <v>222843.53125</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1870683.625</v>
+      </c>
+      <c r="G253" t="n">
+        <v>1647840.09375</v>
+      </c>
+      <c r="H253" t="n">
+        <v>695088.037716</v>
+      </c>
+      <c r="I253" t="n">
+        <v>402851.102353</v>
+      </c>
+      <c r="J253" t="n">
+        <v>21</v>
+      </c>
+      <c r="K253" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L253" s="12" t="n">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Aspen Lake_01161255</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>36</v>
+      </c>
+      <c r="C254" t="n">
+        <v>3240000</v>
+      </c>
+      <c r="E254" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F254" t="n">
+        <v>173780.1875</v>
+      </c>
+      <c r="G254" t="n">
+        <v>167470.61084</v>
+      </c>
+      <c r="H254" t="n">
+        <v>47186.4604492</v>
+      </c>
+      <c r="I254" t="n">
+        <v>46339.734589</v>
+      </c>
+      <c r="J254" t="n">
+        <v>21</v>
+      </c>
+      <c r="K254" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L254" s="12" t="n">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Green Peter Lake_01158878</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>26</v>
+      </c>
+      <c r="C255" t="n">
+        <v>2340000</v>
+      </c>
+      <c r="E255" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F255" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0</v>
+      </c>
+      <c r="H255" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>21</v>
+      </c>
+      <c r="K255" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L255" s="12" t="n">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Detroit Lake_01639301</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>31</v>
+      </c>
+      <c r="C256" t="n">
+        <v>2790000</v>
+      </c>
+      <c r="E256" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F256" t="n">
+        <v>23120.6640625</v>
+      </c>
+      <c r="G256" t="n">
+        <v>16811.0874023</v>
+      </c>
+      <c r="H256" t="n">
+        <v>7306.109312</v>
+      </c>
+      <c r="I256" t="n">
+        <v>3376.43008151</v>
+      </c>
+      <c r="J256" t="n">
+        <v>21</v>
+      </c>
+      <c r="K256" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L256" s="12" t="n">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Summer Lake_01150595</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>425</v>
+      </c>
+      <c r="C257" t="n">
+        <v>38250000</v>
+      </c>
+      <c r="E257" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F257" t="n">
+        <v>310456.03125</v>
+      </c>
+      <c r="G257" t="n">
+        <v>304146.45459</v>
+      </c>
+      <c r="H257" t="n">
+        <v>40555.7271967</v>
+      </c>
+      <c r="I257" t="n">
+        <v>51085.7504524</v>
+      </c>
+      <c r="J257" t="n">
+        <v>21</v>
+      </c>
+      <c r="K257" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L257" s="12" t="n">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Siltcoos Lake_01158483</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>98</v>
+      </c>
+      <c r="C258" t="n">
+        <v>8820000</v>
+      </c>
+      <c r="E258" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F258" t="n">
+        <v>285759.25</v>
+      </c>
+      <c r="G258" t="n">
+        <v>279449.67334</v>
+      </c>
+      <c r="H258" t="n">
+        <v>12748.8268595</v>
+      </c>
+      <c r="I258" t="n">
+        <v>31496.3731281</v>
+      </c>
+      <c r="J258" t="n">
+        <v>21</v>
+      </c>
+      <c r="K258" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L258" s="12" t="n">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Timothy Lake_01151253</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>4</v>
+      </c>
+      <c r="C259" t="n">
+        <v>360000</v>
+      </c>
+      <c r="E259" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F259" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0</v>
+      </c>
+      <c r="H259" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>21</v>
+      </c>
+      <c r="K259" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L259" s="12" t="n">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Gerber Reservoir_01121105</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>9</v>
+      </c>
+      <c r="C260" t="n">
+        <v>810000</v>
+      </c>
+      <c r="E260" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F260" t="n">
+        <v>173780.1875</v>
+      </c>
+      <c r="G260" t="n">
+        <v>167470.61084</v>
+      </c>
+      <c r="H260" t="n">
+        <v>62713.5877821</v>
+      </c>
+      <c r="I260" t="n">
+        <v>50199.8539477</v>
+      </c>
+      <c r="J260" t="n">
+        <v>21</v>
+      </c>
+      <c r="K260" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L260" s="12" t="n">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Crater Lake_01163669</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>429</v>
+      </c>
+      <c r="C261" t="n">
+        <v>38610000</v>
+      </c>
+      <c r="E261" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F261" t="n">
+        <v>69823.296875</v>
+      </c>
+      <c r="G261" t="n">
+        <v>63513.7202148</v>
+      </c>
+      <c r="H261" t="n">
+        <v>7027.39298446</v>
+      </c>
+      <c r="I261" t="n">
+        <v>5190.30133663</v>
+      </c>
+      <c r="J261" t="n">
+        <v>21</v>
+      </c>
+      <c r="K261" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L261" s="12" t="n">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Lake Billy Chinook_01138120</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>109</v>
+      </c>
+      <c r="C262" t="n">
+        <v>9810000</v>
+      </c>
+      <c r="E262" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F262" t="n">
+        <v>89536.5078125</v>
+      </c>
+      <c r="G262" t="n">
+        <v>83226.93115230001</v>
+      </c>
+      <c r="H262" t="n">
+        <v>8800.428581030001</v>
+      </c>
+      <c r="I262" t="n">
+        <v>9737.051124170001</v>
+      </c>
+      <c r="J262" t="n">
+        <v>22</v>
+      </c>
+      <c r="K262" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L262" s="12" t="n">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Warm Springs Reservoir_01128656</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>75</v>
+      </c>
+      <c r="C263" t="n">
+        <v>6750000</v>
+      </c>
+      <c r="E263" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F263" t="n">
+        <v>114815.414062</v>
+      </c>
+      <c r="G263" t="n">
+        <v>108505.837402</v>
+      </c>
+      <c r="H263" t="n">
+        <v>10247.5363542</v>
+      </c>
+      <c r="I263" t="n">
+        <v>17017.8754608</v>
+      </c>
+      <c r="J263" t="n">
+        <v>22</v>
+      </c>
+      <c r="K263" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L263" s="12" t="n">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Beulah Reservoir_01117569</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>41</v>
+      </c>
+      <c r="C264" t="n">
+        <v>3690000</v>
+      </c>
+      <c r="E264" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F264" t="n">
+        <v>24434.3183594</v>
+      </c>
+      <c r="G264" t="n">
+        <v>18124.7416992</v>
+      </c>
+      <c r="H264" t="n">
+        <v>7066.90744093</v>
+      </c>
+      <c r="I264" t="n">
+        <v>3122.39563485</v>
+      </c>
+      <c r="J264" t="n">
+        <v>22</v>
+      </c>
+      <c r="K264" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L264" s="12" t="n">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Waldo Lake_01151818</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>237</v>
+      </c>
+      <c r="C265" t="n">
+        <v>21330000</v>
+      </c>
+      <c r="E265" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F265" t="n">
+        <v>328095.5</v>
+      </c>
+      <c r="G265" t="n">
+        <v>321785.92334</v>
+      </c>
+      <c r="H265" t="n">
+        <v>15931.4300748</v>
+      </c>
+      <c r="I265" t="n">
+        <v>27935.6186668</v>
+      </c>
+      <c r="J265" t="n">
+        <v>22</v>
+      </c>
+      <c r="K265" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L265" s="12" t="n">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Davis Lake_01140666</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>11</v>
+      </c>
+      <c r="C266" t="n">
+        <v>990000</v>
+      </c>
+      <c r="E266" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F266" t="n">
+        <v>159955.890625</v>
+      </c>
+      <c r="G266" t="n">
+        <v>153646.313965</v>
+      </c>
+      <c r="H266" t="n">
+        <v>53973.4037198</v>
+      </c>
+      <c r="I266" t="n">
+        <v>45459.4417852</v>
+      </c>
+      <c r="J266" t="n">
+        <v>22</v>
+      </c>
+      <c r="K266" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L266" s="12" t="n">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Crescent Lake_01158186</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>154</v>
+      </c>
+      <c r="C267" t="n">
+        <v>13860000</v>
+      </c>
+      <c r="E267" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F267" t="n">
+        <v>310456.03125</v>
+      </c>
+      <c r="G267" t="n">
+        <v>304146.45459</v>
+      </c>
+      <c r="H267" t="n">
+        <v>23761.7619978</v>
+      </c>
+      <c r="I267" t="n">
+        <v>58190.7777492</v>
+      </c>
+      <c r="J267" t="n">
+        <v>22</v>
+      </c>
+      <c r="K267" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L267" s="12" t="n">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Wickiup Reservoir_01161711</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>128</v>
+      </c>
+      <c r="C268" t="n">
+        <v>11520000</v>
+      </c>
+      <c r="E268" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F268" t="n">
+        <v>151356.234375</v>
+      </c>
+      <c r="G268" t="n">
+        <v>145046.657715</v>
+      </c>
+      <c r="H268" t="n">
+        <v>12458.6975708</v>
+      </c>
+      <c r="I268" t="n">
+        <v>18703.1638601</v>
+      </c>
+      <c r="J268" t="n">
+        <v>22</v>
+      </c>
+      <c r="K268" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L268" s="12" t="n">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Paulina Lake_01147502</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>57</v>
+      </c>
+      <c r="C269" t="n">
+        <v>5130000</v>
+      </c>
+      <c r="E269" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F269" t="n">
+        <v>43651.6171875</v>
+      </c>
+      <c r="G269" t="n">
+        <v>37342.0405273</v>
+      </c>
+      <c r="H269" t="n">
+        <v>7493.78805167</v>
+      </c>
+      <c r="I269" t="n">
+        <v>5980.62539666</v>
+      </c>
+      <c r="J269" t="n">
+        <v>22</v>
+      </c>
+      <c r="K269" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L269" s="12" t="n">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Odell Lake_01147159</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>138</v>
+      </c>
+      <c r="C270" t="n">
+        <v>12420000</v>
+      </c>
+      <c r="E270" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F270" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0</v>
+      </c>
+      <c r="H270" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>22</v>
+      </c>
+      <c r="K270" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L270" s="12" t="n">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Crane Prairie Reservoir_01140386</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>8</v>
+      </c>
+      <c r="C271" t="n">
+        <v>720000</v>
+      </c>
+      <c r="E271" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F271" t="n">
+        <v>194088.640625</v>
+      </c>
+      <c r="G271" t="n">
+        <v>187779.063965</v>
+      </c>
+      <c r="H271" t="n">
+        <v>34088.3231812</v>
+      </c>
+      <c r="I271" t="n">
+        <v>61065.2046808</v>
+      </c>
+      <c r="J271" t="n">
+        <v>22</v>
+      </c>
+      <c r="K271" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L271" s="12" t="n">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Hills Creek Lake_01158881</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>62</v>
+      </c>
+      <c r="C272" t="n">
+        <v>5580000</v>
+      </c>
+      <c r="E272" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F272" t="n">
+        <v>277971.46875</v>
+      </c>
+      <c r="G272" t="n">
+        <v>271661.89209</v>
+      </c>
+      <c r="H272" t="n">
+        <v>13449.3357012</v>
+      </c>
+      <c r="I272" t="n">
+        <v>37910.2613977</v>
+      </c>
+      <c r="J272" t="n">
+        <v>22</v>
+      </c>
+      <c r="K272" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L272" s="12" t="n">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Lost Creek Lake_01158890</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>94</v>
+      </c>
+      <c r="C273" t="n">
+        <v>8460000</v>
+      </c>
+      <c r="E273" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F273" t="n">
+        <v>496592.40625</v>
+      </c>
+      <c r="G273" t="n">
+        <v>490282.82959</v>
+      </c>
+      <c r="H273" t="n">
+        <v>20140.9602259</v>
+      </c>
+      <c r="I273" t="n">
+        <v>65786.98994860001</v>
+      </c>
+      <c r="J273" t="n">
+        <v>22</v>
+      </c>
+      <c r="K273" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L273" s="12" t="n">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Malheur Lake_01123710</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>576</v>
+      </c>
+      <c r="C274" t="n">
+        <v>51840000</v>
+      </c>
+      <c r="E274" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F274" t="n">
+        <v>337287.5625</v>
+      </c>
+      <c r="G274" t="n">
+        <v>330977.98584</v>
+      </c>
+      <c r="H274" t="n">
+        <v>60896.0169152</v>
+      </c>
+      <c r="I274" t="n">
+        <v>67550.5392324</v>
+      </c>
+      <c r="J274" t="n">
+        <v>22</v>
+      </c>
+      <c r="K274" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L274" s="12" t="n">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Foster Lake_01158892</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>6</v>
+      </c>
+      <c r="C275" t="n">
+        <v>540000</v>
+      </c>
+      <c r="E275" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F275" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0</v>
+      </c>
+      <c r="H275" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="n">
+        <v>22</v>
+      </c>
+      <c r="K275" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L275" s="12" t="n">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Goose Lake_00224325</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>402</v>
+      </c>
+      <c r="C276" t="n">
+        <v>36180000</v>
+      </c>
+      <c r="E276" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F276" t="n">
+        <v>173780.1875</v>
+      </c>
+      <c r="G276" t="n">
+        <v>167470.61084</v>
+      </c>
+      <c r="H276" t="n">
+        <v>25372.4847527</v>
+      </c>
+      <c r="I276" t="n">
+        <v>32296.4151639</v>
+      </c>
+      <c r="J276" t="n">
+        <v>22</v>
+      </c>
+      <c r="K276" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L276" s="12" t="n">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Upper Klamath Lake_01151685</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>2582</v>
+      </c>
+      <c r="C277" t="n">
+        <v>232380000</v>
+      </c>
+      <c r="E277" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F277" t="n">
+        <v>376704</v>
+      </c>
+      <c r="G277" t="n">
+        <v>370394.42334</v>
+      </c>
+      <c r="H277" t="n">
+        <v>11031.7559897</v>
+      </c>
+      <c r="I277" t="n">
+        <v>21869.0807816</v>
+      </c>
+      <c r="J277" t="n">
+        <v>22</v>
+      </c>
+      <c r="K277" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L277" s="12" t="n">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Lake Abert_01116755</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>730</v>
+      </c>
+      <c r="C278" t="n">
+        <v>65700000</v>
+      </c>
+      <c r="E278" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F278" t="n">
+        <v>619441.5</v>
+      </c>
+      <c r="G278" t="n">
+        <v>613131.92334</v>
+      </c>
+      <c r="H278" t="n">
+        <v>81364.5931333</v>
+      </c>
+      <c r="I278" t="n">
+        <v>71636.3643038</v>
+      </c>
+      <c r="J278" t="n">
+        <v>22</v>
+      </c>
+      <c r="K278" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L278" s="12" t="n">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Alkali Lake_01116863</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>29</v>
+      </c>
+      <c r="C279" t="n">
+        <v>2610000</v>
+      </c>
+      <c r="E279" t="n">
+        <v>14060.4824219</v>
+      </c>
+      <c r="F279" t="n">
+        <v>1541701.125</v>
+      </c>
+      <c r="G279" t="n">
+        <v>1527640.64258</v>
+      </c>
+      <c r="H279" t="n">
+        <v>580095.288591</v>
+      </c>
+      <c r="I279" t="n">
+        <v>402860.391445</v>
+      </c>
+      <c r="J279" t="n">
+        <v>22</v>
+      </c>
+      <c r="K279" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L279" s="12" t="n">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Aspen Lake_01161255</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>79</v>
+      </c>
+      <c r="C280" t="n">
+        <v>7110000</v>
+      </c>
+      <c r="E280" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F280" t="n">
+        <v>199526.3125</v>
+      </c>
+      <c r="G280" t="n">
+        <v>193216.73584</v>
+      </c>
+      <c r="H280" t="n">
+        <v>34524.6994042</v>
+      </c>
+      <c r="I280" t="n">
+        <v>47584.4917509</v>
+      </c>
+      <c r="J280" t="n">
+        <v>22</v>
+      </c>
+      <c r="K280" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L280" s="12" t="n">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Green Peter Lake_01158878</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>67</v>
+      </c>
+      <c r="C281" t="n">
+        <v>6030000</v>
+      </c>
+      <c r="E281" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F281" t="n">
+        <v>248885.8125</v>
+      </c>
+      <c r="G281" t="n">
+        <v>242576.23584</v>
+      </c>
+      <c r="H281" t="n">
+        <v>19562.5012608</v>
+      </c>
+      <c r="I281" t="n">
+        <v>41290.9277866</v>
+      </c>
+      <c r="J281" t="n">
+        <v>22</v>
+      </c>
+      <c r="K281" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L281" s="12" t="n">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Detroit Lake_01639301</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>65</v>
+      </c>
+      <c r="C282" t="n">
+        <v>5850000</v>
+      </c>
+      <c r="E282" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F282" t="n">
+        <v>139315.6875</v>
+      </c>
+      <c r="G282" t="n">
+        <v>133006.11084</v>
+      </c>
+      <c r="H282" t="n">
+        <v>17632.8858924</v>
+      </c>
+      <c r="I282" t="n">
+        <v>26807.4210891</v>
+      </c>
+      <c r="J282" t="n">
+        <v>22</v>
+      </c>
+      <c r="K282" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L282" s="12" t="n">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Summer Lake_01150595</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>1035</v>
+      </c>
+      <c r="C283" t="n">
+        <v>93150000</v>
+      </c>
+      <c r="E283" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F283" t="n">
+        <v>711213.875</v>
+      </c>
+      <c r="G283" t="n">
+        <v>704904.29834</v>
+      </c>
+      <c r="H283" t="n">
+        <v>74693.00773510001</v>
+      </c>
+      <c r="I283" t="n">
+        <v>109479.401916</v>
+      </c>
+      <c r="J283" t="n">
+        <v>22</v>
+      </c>
+      <c r="K283" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L283" s="12" t="n">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Siltcoos Lake_01158483</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>94</v>
+      </c>
+      <c r="C284" t="n">
+        <v>8460000</v>
+      </c>
+      <c r="E284" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F284" t="n">
+        <v>89536.5078125</v>
+      </c>
+      <c r="G284" t="n">
+        <v>83226.93115230001</v>
+      </c>
+      <c r="H284" t="n">
+        <v>9661.85817507</v>
+      </c>
+      <c r="I284" t="n">
+        <v>14043.050259</v>
+      </c>
+      <c r="J284" t="n">
+        <v>22</v>
+      </c>
+      <c r="K284" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L284" s="12" t="n">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Timothy Lake_01151253</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>20</v>
+      </c>
+      <c r="C285" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="E285" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F285" t="n">
+        <v>9549.926757810001</v>
+      </c>
+      <c r="G285" t="n">
+        <v>3240.35009766</v>
+      </c>
+      <c r="H285" t="n">
+        <v>6660.87692871</v>
+      </c>
+      <c r="I285" t="n">
+        <v>970.279796547</v>
+      </c>
+      <c r="J285" t="n">
+        <v>22</v>
+      </c>
+      <c r="K285" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L285" s="12" t="n">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Gerber Reservoir_01121105</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>7</v>
+      </c>
+      <c r="C286" t="n">
+        <v>630000</v>
+      </c>
+      <c r="E286" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F286" t="n">
+        <v>293765.0625</v>
+      </c>
+      <c r="G286" t="n">
+        <v>287455.48584</v>
+      </c>
+      <c r="H286" t="n">
+        <v>123026.070801</v>
+      </c>
+      <c r="I286" t="n">
+        <v>113613.44343</v>
+      </c>
+      <c r="J286" t="n">
+        <v>22</v>
+      </c>
+      <c r="K286" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L286" s="12" t="n">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Crater Lake_01163669</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>569</v>
+      </c>
+      <c r="C287" t="n">
+        <v>51210000</v>
+      </c>
+      <c r="E287" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F287" t="n">
+        <v>301995.375</v>
+      </c>
+      <c r="G287" t="n">
+        <v>295685.79834</v>
+      </c>
+      <c r="H287" t="n">
+        <v>10855.3888444</v>
+      </c>
+      <c r="I287" t="n">
+        <v>22141.7484073</v>
+      </c>
+      <c r="J287" t="n">
+        <v>22</v>
+      </c>
+      <c r="K287" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L287" s="12" t="n">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Lake Billy Chinook_01138120</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>91</v>
+      </c>
+      <c r="C288" t="n">
+        <v>8190000</v>
+      </c>
+      <c r="E288" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F288" t="n">
+        <v>255858.734375</v>
+      </c>
+      <c r="G288" t="n">
+        <v>249549.157715</v>
+      </c>
+      <c r="H288" t="n">
+        <v>21090.1777075</v>
+      </c>
+      <c r="I288" t="n">
+        <v>39988.4714188</v>
+      </c>
+      <c r="J288" t="n">
+        <v>23</v>
+      </c>
+      <c r="K288" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L288" s="12" t="n">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Waldo Lake_01151818</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>211</v>
+      </c>
+      <c r="C289" t="n">
+        <v>18990000</v>
+      </c>
+      <c r="E289" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F289" t="n">
+        <v>346737</v>
+      </c>
+      <c r="G289" t="n">
+        <v>340427.42334</v>
+      </c>
+      <c r="H289" t="n">
+        <v>32496.0096268</v>
+      </c>
+      <c r="I289" t="n">
+        <v>46197.0726724</v>
+      </c>
+      <c r="J289" t="n">
+        <v>23</v>
+      </c>
+      <c r="K289" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L289" s="12" t="n">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Davis Lake_01140666</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>16</v>
+      </c>
+      <c r="C290" t="n">
+        <v>1440000</v>
+      </c>
+      <c r="E290" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F290" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0</v>
+      </c>
+      <c r="H290" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I290" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" t="n">
+        <v>23</v>
+      </c>
+      <c r="K290" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L290" s="12" t="n">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Crescent Lake_01158186</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>112</v>
+      </c>
+      <c r="C291" t="n">
+        <v>10080000</v>
+      </c>
+      <c r="E291" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F291" t="n">
+        <v>319153.9375</v>
+      </c>
+      <c r="G291" t="n">
+        <v>312844.36084</v>
+      </c>
+      <c r="H291" t="n">
+        <v>25982.1876046</v>
+      </c>
+      <c r="I291" t="n">
+        <v>54079.2379703</v>
+      </c>
+      <c r="J291" t="n">
+        <v>23</v>
+      </c>
+      <c r="K291" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L291" s="12" t="n">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Wickiup Reservoir_01161711</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>116</v>
+      </c>
+      <c r="C292" t="n">
+        <v>10440000</v>
+      </c>
+      <c r="E292" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F292" t="n">
+        <v>114815.414062</v>
+      </c>
+      <c r="G292" t="n">
+        <v>108505.837402</v>
+      </c>
+      <c r="H292" t="n">
+        <v>15989.8944302</v>
+      </c>
+      <c r="I292" t="n">
+        <v>22730.3720487</v>
+      </c>
+      <c r="J292" t="n">
+        <v>23</v>
+      </c>
+      <c r="K292" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L292" s="12" t="n">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Paulina Lake_01147502</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>53</v>
+      </c>
+      <c r="C293" t="n">
+        <v>4770000</v>
+      </c>
+      <c r="E293" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F293" t="n">
+        <v>483059.09375</v>
+      </c>
+      <c r="G293" t="n">
+        <v>476749.51709</v>
+      </c>
+      <c r="H293" t="n">
+        <v>33095.1257094</v>
+      </c>
+      <c r="I293" t="n">
+        <v>100857.643583</v>
+      </c>
+      <c r="J293" t="n">
+        <v>23</v>
+      </c>
+      <c r="K293" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L293" s="12" t="n">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Odell Lake_01147159</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>135</v>
+      </c>
+      <c r="C294" t="n">
+        <v>12150000</v>
+      </c>
+      <c r="E294" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F294" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0</v>
+      </c>
+      <c r="H294" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" t="n">
+        <v>23</v>
+      </c>
+      <c r="K294" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L294" s="12" t="n">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Cottage Grove Lake_01158179</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>8</v>
+      </c>
+      <c r="C295" t="n">
+        <v>720000</v>
+      </c>
+      <c r="E295" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F295" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0</v>
+      </c>
+      <c r="H295" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" t="n">
+        <v>23</v>
+      </c>
+      <c r="K295" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L295" s="12" t="n">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Dorena Lake_01120032</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>19</v>
+      </c>
+      <c r="C296" t="n">
+        <v>1710000</v>
+      </c>
+      <c r="E296" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F296" t="n">
+        <v>51522.8789062</v>
+      </c>
+      <c r="G296" t="n">
+        <v>45213.3022461</v>
+      </c>
+      <c r="H296" t="n">
+        <v>11196.9028577</v>
+      </c>
+      <c r="I296" t="n">
+        <v>11995.8607127</v>
+      </c>
+      <c r="J296" t="n">
+        <v>23</v>
+      </c>
+      <c r="K296" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L296" s="12" t="n">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Hills Creek Lake_01158881</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>51</v>
+      </c>
+      <c r="C297" t="n">
+        <v>4590000</v>
+      </c>
+      <c r="E297" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F297" t="n">
+        <v>159955.890625</v>
+      </c>
+      <c r="G297" t="n">
+        <v>153646.313965</v>
+      </c>
+      <c r="H297" t="n">
+        <v>12425.9895067</v>
+      </c>
+      <c r="I297" t="n">
+        <v>27485.3764501</v>
+      </c>
+      <c r="J297" t="n">
+        <v>23</v>
+      </c>
+      <c r="K297" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L297" s="12" t="n">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Lost Creek Lake_01158890</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>92</v>
+      </c>
+      <c r="C298" t="n">
+        <v>8280000</v>
+      </c>
+      <c r="E298" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F298" t="n">
+        <v>346737</v>
+      </c>
+      <c r="G298" t="n">
+        <v>340427.42334</v>
+      </c>
+      <c r="H298" t="n">
+        <v>11871.8062797</v>
+      </c>
+      <c r="I298" t="n">
+        <v>36478.7102919</v>
+      </c>
+      <c r="J298" t="n">
+        <v>23</v>
+      </c>
+      <c r="K298" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L298" s="12" t="n">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Malheur Lake_01123710</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>579</v>
+      </c>
+      <c r="C299" t="n">
+        <v>52110000</v>
+      </c>
+      <c r="E299" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F299" t="n">
+        <v>310456.03125</v>
+      </c>
+      <c r="G299" t="n">
+        <v>304146.45459</v>
+      </c>
+      <c r="H299" t="n">
+        <v>45773.6557836</v>
+      </c>
+      <c r="I299" t="n">
+        <v>55201.5696545</v>
+      </c>
+      <c r="J299" t="n">
+        <v>23</v>
+      </c>
+      <c r="K299" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L299" s="12" t="n">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Foster Lake_01158892</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>28</v>
+      </c>
+      <c r="C300" t="n">
+        <v>2520000</v>
+      </c>
+      <c r="E300" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F300" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0</v>
+      </c>
+      <c r="H300" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>23</v>
+      </c>
+      <c r="K300" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L300" s="12" t="n">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Goose Lake_00224325</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>333</v>
+      </c>
+      <c r="C301" t="n">
+        <v>29970000</v>
+      </c>
+      <c r="E301" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F301" t="n">
+        <v>178648.890625</v>
+      </c>
+      <c r="G301" t="n">
+        <v>172339.313965</v>
+      </c>
+      <c r="H301" t="n">
+        <v>18567.6215058</v>
+      </c>
+      <c r="I301" t="n">
+        <v>26433.4307449</v>
+      </c>
+      <c r="J301" t="n">
+        <v>23</v>
+      </c>
+      <c r="K301" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L301" s="12" t="n">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Upper Klamath Lake_01151685</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>2559</v>
+      </c>
+      <c r="C302" t="n">
+        <v>230310000</v>
+      </c>
+      <c r="E302" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F302" t="n">
+        <v>496592.40625</v>
+      </c>
+      <c r="G302" t="n">
+        <v>490282.82959</v>
+      </c>
+      <c r="H302" t="n">
+        <v>10805.4020026</v>
+      </c>
+      <c r="I302" t="n">
+        <v>26297.310113</v>
+      </c>
+      <c r="J302" t="n">
+        <v>23</v>
+      </c>
+      <c r="K302" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L302" s="12" t="n">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Henry Hagg Lake_01158095</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>27</v>
+      </c>
+      <c r="C303" t="n">
+        <v>2430000</v>
+      </c>
+      <c r="E303" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F303" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0</v>
+      </c>
+      <c r="H303" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0</v>
+      </c>
+      <c r="J303" t="n">
+        <v>23</v>
+      </c>
+      <c r="K303" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L303" s="12" t="n">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Lake Abert_01116755</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>796</v>
+      </c>
+      <c r="C304" t="n">
+        <v>71640000</v>
+      </c>
+      <c r="E304" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F304" t="n">
+        <v>636795.75</v>
+      </c>
+      <c r="G304" t="n">
+        <v>630486.17334</v>
+      </c>
+      <c r="H304" t="n">
+        <v>74079.3892681</v>
+      </c>
+      <c r="I304" t="n">
+        <v>71471.93327179999</v>
+      </c>
+      <c r="J304" t="n">
+        <v>23</v>
+      </c>
+      <c r="K304" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L304" s="12" t="n">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Alkali Lake_01116863</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>29</v>
+      </c>
+      <c r="C305" t="n">
+        <v>2610000</v>
+      </c>
+      <c r="E305" t="n">
+        <v>20137.2480469</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1819701.875</v>
+      </c>
+      <c r="G305" t="n">
+        <v>1799564.62695</v>
+      </c>
+      <c r="H305" t="n">
+        <v>689824.194976</v>
+      </c>
+      <c r="I305" t="n">
+        <v>457760.505526</v>
+      </c>
+      <c r="J305" t="n">
+        <v>23</v>
+      </c>
+      <c r="K305" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L305" s="12" t="n">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Aspen Lake_01161255</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>50</v>
+      </c>
+      <c r="C306" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="E306" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F306" t="n">
+        <v>169044.15625</v>
+      </c>
+      <c r="G306" t="n">
+        <v>162734.57959</v>
+      </c>
+      <c r="H306" t="n">
+        <v>23829.7345215</v>
+      </c>
+      <c r="I306" t="n">
+        <v>43807.1625964</v>
+      </c>
+      <c r="J306" t="n">
+        <v>23</v>
+      </c>
+      <c r="K306" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L306" s="12" t="n">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Green Peter Lake_01158878</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>74</v>
+      </c>
+      <c r="C307" t="n">
+        <v>6660000</v>
+      </c>
+      <c r="E307" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F307" t="n">
+        <v>816582.6875</v>
+      </c>
+      <c r="G307" t="n">
+        <v>810273.11084</v>
+      </c>
+      <c r="H307" t="n">
+        <v>65368.2108055</v>
+      </c>
+      <c r="I307" t="n">
+        <v>156159.612028</v>
+      </c>
+      <c r="J307" t="n">
+        <v>23</v>
+      </c>
+      <c r="K307" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L307" s="12" t="n">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Detroit Lake_01639301</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>58</v>
+      </c>
+      <c r="C308" t="n">
+        <v>5220000</v>
+      </c>
+      <c r="E308" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F308" t="n">
+        <v>164437.203125</v>
+      </c>
+      <c r="G308" t="n">
+        <v>158127.626465</v>
+      </c>
+      <c r="H308" t="n">
+        <v>23956.9033624</v>
+      </c>
+      <c r="I308" t="n">
+        <v>35629.0257942</v>
+      </c>
+      <c r="J308" t="n">
+        <v>23</v>
+      </c>
+      <c r="K308" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L308" s="12" t="n">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Summer Lake_01150595</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>1046</v>
+      </c>
+      <c r="C309" t="n">
+        <v>94140000</v>
+      </c>
+      <c r="E309" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F309" t="n">
+        <v>772681.0625</v>
+      </c>
+      <c r="G309" t="n">
+        <v>766371.48584</v>
+      </c>
+      <c r="H309" t="n">
+        <v>69937.47913180001</v>
+      </c>
+      <c r="I309" t="n">
+        <v>104394.525833</v>
+      </c>
+      <c r="J309" t="n">
+        <v>23</v>
+      </c>
+      <c r="K309" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L309" s="12" t="n">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Siltcoos Lake_01158483</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>117</v>
+      </c>
+      <c r="C310" t="n">
+        <v>10530000</v>
+      </c>
+      <c r="E310" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F310" t="n">
+        <v>1270574.375</v>
+      </c>
+      <c r="G310" t="n">
+        <v>1264264.79834</v>
+      </c>
+      <c r="H310" t="n">
+        <v>38709.1678602</v>
+      </c>
+      <c r="I310" t="n">
+        <v>140494.135767</v>
+      </c>
+      <c r="J310" t="n">
+        <v>23</v>
+      </c>
+      <c r="K310" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L310" s="12" t="n">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Timothy Lake_01151253</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>18</v>
+      </c>
+      <c r="C311" t="n">
+        <v>1620000</v>
+      </c>
+      <c r="E311" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F311" t="n">
+        <v>912011.4375</v>
+      </c>
+      <c r="G311" t="n">
+        <v>905701.86084</v>
+      </c>
+      <c r="H311" t="n">
+        <v>115809.217095</v>
+      </c>
+      <c r="I311" t="n">
+        <v>239067.331083</v>
+      </c>
+      <c r="J311" t="n">
+        <v>23</v>
+      </c>
+      <c r="K311" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L311" s="12" t="n">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Gerber Reservoir_01121105</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>12</v>
+      </c>
+      <c r="C312" t="n">
+        <v>1080000</v>
+      </c>
+      <c r="E312" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F312" t="n">
+        <v>301995.375</v>
+      </c>
+      <c r="G312" t="n">
+        <v>295685.79834</v>
+      </c>
+      <c r="H312" t="n">
+        <v>100282.358073</v>
+      </c>
+      <c r="I312" t="n">
+        <v>104044.68877</v>
+      </c>
+      <c r="J312" t="n">
+        <v>23</v>
+      </c>
+      <c r="K312" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L312" s="12" t="n">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Crater Lake_01163669</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>479</v>
+      </c>
+      <c r="C313" t="n">
+        <v>43110000</v>
+      </c>
+      <c r="E313" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F313" t="n">
+        <v>420726.6875</v>
+      </c>
+      <c r="G313" t="n">
+        <v>414417.11084</v>
+      </c>
+      <c r="H313" t="n">
+        <v>17438.0115332</v>
+      </c>
+      <c r="I313" t="n">
+        <v>29652.774446</v>
+      </c>
+      <c r="J313" t="n">
+        <v>23</v>
+      </c>
+      <c r="K313" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L313" s="12" t="n">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Lake Billy Chinook_01138120</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>82</v>
+      </c>
+      <c r="C314" t="n">
+        <v>7380000</v>
+      </c>
+      <c r="D314" t="inlineStr"/>
+      <c r="E314" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F314" t="n">
+        <v>67920.3984375</v>
+      </c>
+      <c r="G314" t="n">
+        <v>61610.8217773</v>
+      </c>
+      <c r="H314" t="n">
+        <v>8084.72612186</v>
+      </c>
+      <c r="I314" t="n">
+        <v>8961.43257243</v>
+      </c>
+      <c r="J314" t="n">
+        <v>24</v>
+      </c>
+      <c r="K314" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L314" s="12" t="n">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Waldo Lake_01151818</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>239</v>
+      </c>
+      <c r="C315" t="n">
+        <v>21510000</v>
+      </c>
+      <c r="D315" t="inlineStr"/>
+      <c r="E315" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F315" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0</v>
+      </c>
+      <c r="H315" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I315" t="n">
+        <v>0</v>
+      </c>
+      <c r="J315" t="n">
+        <v>24</v>
+      </c>
+      <c r="K315" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L315" s="12" t="n">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Davis Lake_01140666</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>13</v>
+      </c>
+      <c r="C316" t="n">
+        <v>1170000</v>
+      </c>
+      <c r="D316" t="inlineStr"/>
+      <c r="E316" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F316" t="n">
+        <v>94623.78125</v>
+      </c>
+      <c r="G316" t="n">
+        <v>88314.20458980001</v>
+      </c>
+      <c r="H316" t="n">
+        <v>13102.9770132</v>
+      </c>
+      <c r="I316" t="n">
+        <v>23533.0291353</v>
+      </c>
+      <c r="J316" t="n">
+        <v>24</v>
+      </c>
+      <c r="K316" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L316" s="12" t="n">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Fern Ridge Lake_01120678</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>17</v>
+      </c>
+      <c r="C317" t="n">
+        <v>1530000</v>
+      </c>
+      <c r="D317" t="inlineStr"/>
+      <c r="E317" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F317" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0</v>
+      </c>
+      <c r="H317" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I317" t="n">
+        <v>0</v>
+      </c>
+      <c r="J317" t="n">
+        <v>24</v>
+      </c>
+      <c r="K317" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L317" s="12" t="n">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Crescent Lake_01158186</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>145</v>
+      </c>
+      <c r="C318" t="n">
+        <v>13050000</v>
+      </c>
+      <c r="D318" t="inlineStr"/>
+      <c r="E318" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F318" t="n">
+        <v>23768.4121094</v>
+      </c>
+      <c r="G318" t="n">
+        <v>17458.8354492</v>
+      </c>
+      <c r="H318" t="n">
+        <v>6551.08871228</v>
+      </c>
+      <c r="I318" t="n">
+        <v>1773.29346248</v>
+      </c>
+      <c r="J318" t="n">
+        <v>24</v>
+      </c>
+      <c r="K318" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L318" s="12" t="n">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Wickiup Reservoir_01161711</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>124</v>
+      </c>
+      <c r="C319" t="n">
+        <v>11160000</v>
+      </c>
+      <c r="D319" t="inlineStr"/>
+      <c r="E319" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F319" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0</v>
+      </c>
+      <c r="H319" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I319" t="n">
+        <v>0</v>
+      </c>
+      <c r="J319" t="n">
+        <v>24</v>
+      </c>
+      <c r="K319" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L319" s="12" t="n">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Paulina Lake_01147502</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>57</v>
+      </c>
+      <c r="C320" t="n">
+        <v>5130000</v>
+      </c>
+      <c r="D320" t="inlineStr"/>
+      <c r="E320" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F320" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0</v>
+      </c>
+      <c r="H320" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I320" t="n">
+        <v>0</v>
+      </c>
+      <c r="J320" t="n">
+        <v>24</v>
+      </c>
+      <c r="K320" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L320" s="12" t="n">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Odell Lake_01147159</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>136</v>
+      </c>
+      <c r="C321" t="n">
+        <v>12240000</v>
+      </c>
+      <c r="D321" t="inlineStr"/>
+      <c r="E321" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F321" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0</v>
+      </c>
+      <c r="H321" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I321" t="n">
+        <v>0</v>
+      </c>
+      <c r="J321" t="n">
+        <v>24</v>
+      </c>
+      <c r="K321" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L321" s="12" t="n">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Cottage Grove Lake_01158179</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>12</v>
+      </c>
+      <c r="C322" t="n">
+        <v>1080000</v>
+      </c>
+      <c r="D322" t="inlineStr"/>
+      <c r="E322" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F322" t="n">
+        <v>75857.78125</v>
+      </c>
+      <c r="G322" t="n">
+        <v>69548.20458980001</v>
+      </c>
+      <c r="H322" t="n">
+        <v>15423.7777507</v>
+      </c>
+      <c r="I322" t="n">
+        <v>21264.0877086</v>
+      </c>
+      <c r="J322" t="n">
+        <v>24</v>
+      </c>
+      <c r="K322" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L322" s="12" t="n">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Dorena Lake_01120032</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>19</v>
+      </c>
+      <c r="C323" t="n">
+        <v>1710000</v>
+      </c>
+      <c r="D323" t="inlineStr"/>
+      <c r="E323" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F323" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0</v>
+      </c>
+      <c r="H323" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I323" t="n">
+        <v>0</v>
+      </c>
+      <c r="J323" t="n">
+        <v>24</v>
+      </c>
+      <c r="K323" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L323" s="12" t="n">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Hills Creek Lake_01158881</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>58</v>
+      </c>
+      <c r="C324" t="n">
+        <v>5220000</v>
+      </c>
+      <c r="D324" t="inlineStr"/>
+      <c r="E324" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F324" t="n">
+        <v>135519</v>
+      </c>
+      <c r="G324" t="n">
+        <v>129209.42334</v>
+      </c>
+      <c r="H324" t="n">
+        <v>9858.33929654</v>
+      </c>
+      <c r="I324" t="n">
+        <v>17697.8240326</v>
+      </c>
+      <c r="J324" t="n">
+        <v>24</v>
+      </c>
+      <c r="K324" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L324" s="12" t="n">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Lost Creek Lake_01158890</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>51</v>
+      </c>
+      <c r="C325" t="n">
+        <v>4590000</v>
+      </c>
+      <c r="D325" t="inlineStr"/>
+      <c r="E325" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F325" t="n">
+        <v>337287.5625</v>
+      </c>
+      <c r="G325" t="n">
+        <v>330977.98584</v>
+      </c>
+      <c r="H325" t="n">
+        <v>32862.4444891</v>
+      </c>
+      <c r="I325" t="n">
+        <v>69096.2393508</v>
+      </c>
+      <c r="J325" t="n">
+        <v>24</v>
+      </c>
+      <c r="K325" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L325" s="12" t="n">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Malheur Lake_01123710</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>569</v>
+      </c>
+      <c r="C326" t="n">
+        <v>51210000</v>
+      </c>
+      <c r="D326" t="inlineStr"/>
+      <c r="E326" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F326" t="n">
+        <v>366437.6875</v>
+      </c>
+      <c r="G326" t="n">
+        <v>360128.11084</v>
+      </c>
+      <c r="H326" t="n">
+        <v>66193.9407086</v>
+      </c>
+      <c r="I326" t="n">
+        <v>76139.0798914</v>
+      </c>
+      <c r="J326" t="n">
+        <v>24</v>
+      </c>
+      <c r="K326" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L326" s="12" t="n">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Foster Lake_01158892</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>29</v>
+      </c>
+      <c r="C327" t="n">
+        <v>2610000</v>
+      </c>
+      <c r="D327" t="inlineStr"/>
+      <c r="E327" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F327" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0</v>
+      </c>
+      <c r="H327" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I327" t="n">
+        <v>0</v>
+      </c>
+      <c r="J327" t="n">
+        <v>24</v>
+      </c>
+      <c r="K327" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L327" s="12" t="n">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Goose Lake_00224325</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>224</v>
+      </c>
+      <c r="C328" t="n">
+        <v>20160000</v>
+      </c>
+      <c r="D328" t="inlineStr"/>
+      <c r="E328" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F328" t="n">
+        <v>277971.46875</v>
+      </c>
+      <c r="G328" t="n">
+        <v>271661.89209</v>
+      </c>
+      <c r="H328" t="n">
+        <v>41274.3708496</v>
+      </c>
+      <c r="I328" t="n">
+        <v>56265.0297647</v>
+      </c>
+      <c r="J328" t="n">
+        <v>24</v>
+      </c>
+      <c r="K328" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L328" s="12" t="n">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Upper Klamath Lake_01151685</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>2469</v>
+      </c>
+      <c r="C329" t="n">
+        <v>222210000</v>
+      </c>
+      <c r="D329" t="inlineStr"/>
+      <c r="E329" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F329" t="n">
+        <v>398107.53125</v>
+      </c>
+      <c r="G329" t="n">
+        <v>391797.95459</v>
+      </c>
+      <c r="H329" t="n">
+        <v>9469.95847731</v>
+      </c>
+      <c r="I329" t="n">
+        <v>18672.7235144</v>
+      </c>
+      <c r="J329" t="n">
+        <v>24</v>
+      </c>
+      <c r="K329" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L329" s="12" t="n">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Lake Abert_01116755</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>589</v>
+      </c>
+      <c r="C330" t="n">
+        <v>53010000</v>
+      </c>
+      <c r="D330" t="inlineStr"/>
+      <c r="E330" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F330" t="n">
+        <v>376704</v>
+      </c>
+      <c r="G330" t="n">
+        <v>370394.42334</v>
+      </c>
+      <c r="H330" t="n">
+        <v>92595.1851821</v>
+      </c>
+      <c r="I330" t="n">
+        <v>68647.3970441</v>
+      </c>
+      <c r="J330" t="n">
+        <v>24</v>
+      </c>
+      <c r="K330" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L330" s="12" t="n">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Alkali Lake_01116863</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>29</v>
+      </c>
+      <c r="C331" t="n">
+        <v>2610000</v>
+      </c>
+      <c r="D331" t="inlineStr"/>
+      <c r="E331" t="n">
+        <v>34040.8242188</v>
+      </c>
+      <c r="F331" t="n">
+        <v>1306171.375</v>
+      </c>
+      <c r="G331" t="n">
+        <v>1272130.55078</v>
+      </c>
+      <c r="H331" t="n">
+        <v>340644.599811</v>
+      </c>
+      <c r="I331" t="n">
+        <v>321379.895319</v>
+      </c>
+      <c r="J331" t="n">
+        <v>24</v>
+      </c>
+      <c r="K331" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L331" s="12" t="n">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Aspen Lake_01161255</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>70</v>
+      </c>
+      <c r="C332" t="n">
+        <v>6300000</v>
+      </c>
+      <c r="D332" t="inlineStr"/>
+      <c r="E332" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F332" t="n">
+        <v>229086.84375</v>
+      </c>
+      <c r="G332" t="n">
+        <v>222777.26709</v>
+      </c>
+      <c r="H332" t="n">
+        <v>28332.2958078</v>
+      </c>
+      <c r="I332" t="n">
+        <v>44377.8881601</v>
+      </c>
+      <c r="J332" t="n">
+        <v>24</v>
+      </c>
+      <c r="K332" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L332" s="12" t="n">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Green Peter Lake_01158878</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>89</v>
+      </c>
+      <c r="C333" t="n">
+        <v>8010000</v>
+      </c>
+      <c r="D333" t="inlineStr"/>
+      <c r="E333" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F333" t="n">
+        <v>420726.6875</v>
+      </c>
+      <c r="G333" t="n">
+        <v>414417.11084</v>
+      </c>
+      <c r="H333" t="n">
+        <v>24938.3895003</v>
+      </c>
+      <c r="I333" t="n">
+        <v>56881.9736832</v>
+      </c>
+      <c r="J333" t="n">
+        <v>24</v>
+      </c>
+      <c r="K333" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L333" s="12" t="n">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Detroit Lake_01639301</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>52</v>
+      </c>
+      <c r="C334" t="n">
+        <v>4680000</v>
+      </c>
+      <c r="D334" t="inlineStr"/>
+      <c r="E334" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F334" t="n">
+        <v>60813.5234375</v>
+      </c>
+      <c r="G334" t="n">
+        <v>54503.9467773</v>
+      </c>
+      <c r="H334" t="n">
+        <v>9053.5499831</v>
+      </c>
+      <c r="I334" t="n">
+        <v>9959.5752017</v>
+      </c>
+      <c r="J334" t="n">
+        <v>24</v>
+      </c>
+      <c r="K334" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L334" s="12" t="n">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Summer Lake_01150595</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>1122</v>
+      </c>
+      <c r="C335" t="n">
+        <v>100980000</v>
+      </c>
+      <c r="D335" t="inlineStr"/>
+      <c r="E335" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F335" t="n">
+        <v>554626</v>
+      </c>
+      <c r="G335" t="n">
+        <v>548316.42334</v>
+      </c>
+      <c r="H335" t="n">
+        <v>46943.9501213</v>
+      </c>
+      <c r="I335" t="n">
+        <v>80084.2476819</v>
+      </c>
+      <c r="J335" t="n">
+        <v>24</v>
+      </c>
+      <c r="K335" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L335" s="12" t="n">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Siltcoos Lake_01158483</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>104</v>
+      </c>
+      <c r="C336" t="n">
+        <v>9360000</v>
+      </c>
+      <c r="D336" t="inlineStr"/>
+      <c r="E336" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F336" t="n">
+        <v>356451.15625</v>
+      </c>
+      <c r="G336" t="n">
+        <v>350141.57959</v>
+      </c>
+      <c r="H336" t="n">
+        <v>24900.551894</v>
+      </c>
+      <c r="I336" t="n">
+        <v>61599.2967602</v>
+      </c>
+      <c r="J336" t="n">
+        <v>24</v>
+      </c>
+      <c r="K336" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L336" s="12" t="n">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Howard Prairie Lake_01158895</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>5</v>
+      </c>
+      <c r="C337" t="n">
+        <v>450000</v>
+      </c>
+      <c r="D337" t="inlineStr"/>
+      <c r="E337" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F337" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0</v>
+      </c>
+      <c r="H337" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I337" t="n">
+        <v>0</v>
+      </c>
+      <c r="J337" t="n">
+        <v>24</v>
+      </c>
+      <c r="K337" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L337" s="12" t="n">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Timothy Lake_01151253</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>14</v>
+      </c>
+      <c r="C338" t="n">
+        <v>1260000</v>
+      </c>
+      <c r="D338" t="inlineStr"/>
+      <c r="E338" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F338" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0</v>
+      </c>
+      <c r="H338" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I338" t="n">
+        <v>0</v>
+      </c>
+      <c r="J338" t="n">
+        <v>24</v>
+      </c>
+      <c r="K338" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L338" s="12" t="n">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Gerber Reservoir_01121105</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>14</v>
+      </c>
+      <c r="C339" t="n">
+        <v>1260000</v>
+      </c>
+      <c r="D339" t="inlineStr"/>
+      <c r="E339" t="n">
+        <v>12589.2578125</v>
+      </c>
+      <c r="F339" t="n">
+        <v>229086.84375</v>
+      </c>
+      <c r="G339" t="n">
+        <v>216497.585938</v>
+      </c>
+      <c r="H339" t="n">
+        <v>58357.6095843</v>
+      </c>
+      <c r="I339" t="n">
+        <v>55279.6924044</v>
+      </c>
+      <c r="J339" t="n">
+        <v>24</v>
+      </c>
+      <c r="K339" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L339" s="12" t="n">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Crater Lake_01163669</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>569</v>
+      </c>
+      <c r="C340" t="n">
+        <v>51210000</v>
+      </c>
+      <c r="D340" t="inlineStr"/>
+      <c r="E340" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F340" t="n">
+        <v>24434.3183594</v>
+      </c>
+      <c r="G340" t="n">
+        <v>18124.7416992</v>
+      </c>
+      <c r="H340" t="n">
+        <v>6357.05186937</v>
+      </c>
+      <c r="I340" t="n">
+        <v>826.403904853</v>
+      </c>
+      <c r="J340" t="n">
+        <v>24</v>
+      </c>
+      <c r="K340" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L340" s="12" t="n">
+        <v>44585</v>
       </c>
     </row>
   </sheetData>

--- a/data/HAB_resolvablelakes_2022.xlsx
+++ b/data/HAB_resolvablelakes_2022.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2015"/>
+  <dimension ref="A1:L2206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A530" activePane="bottomLeft" state="frozen"/>
@@ -74789,7 +74789,6 @@
       <c r="C2009" t="n">
         <v>2160000</v>
       </c>
-      <c r="D2009" t="inlineStr"/>
       <c r="E2009" t="n">
         <v>6309.57666016</v>
       </c>
@@ -74827,7 +74826,6 @@
       <c r="C2010" t="n">
         <v>1170000</v>
       </c>
-      <c r="D2010" t="inlineStr"/>
       <c r="E2010" t="n">
         <v>6309.57666016</v>
       </c>
@@ -74865,7 +74863,6 @@
       <c r="C2011" t="n">
         <v>270000</v>
       </c>
-      <c r="D2011" t="inlineStr"/>
       <c r="E2011" t="n">
         <v>6309.57666016</v>
       </c>
@@ -74903,7 +74900,6 @@
       <c r="C2012" t="n">
         <v>5310000</v>
       </c>
-      <c r="D2012" t="inlineStr"/>
       <c r="E2012" t="n">
         <v>6309.57666016</v>
       </c>
@@ -74941,7 +74937,6 @@
       <c r="C2013" t="n">
         <v>10080000</v>
       </c>
-      <c r="D2013" t="inlineStr"/>
       <c r="E2013" t="n">
         <v>6309.57666016</v>
       </c>
@@ -74979,7 +74974,6 @@
       <c r="C2014" t="n">
         <v>2970000</v>
       </c>
-      <c r="D2014" t="inlineStr"/>
       <c r="E2014" t="n">
         <v>6309.57666016</v>
       </c>
@@ -75017,7 +75011,6 @@
       <c r="C2015" t="n">
         <v>1440000</v>
       </c>
-      <c r="D2015" t="inlineStr"/>
       <c r="E2015" t="n">
         <v>6309.57666016</v>
       </c>
@@ -75041,6 +75034,7074 @@
       </c>
       <c r="L2015" s="12" t="n">
         <v>44654</v>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" t="inlineStr">
+        <is>
+          <t>Lake Owyhee_01125099</t>
+        </is>
+      </c>
+      <c r="B2016" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2016" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E2016" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2016" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2016" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2016" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2016" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2016" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2016" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2016" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" t="inlineStr">
+        <is>
+          <t>Brownlee Reservoir_00378278</t>
+        </is>
+      </c>
+      <c r="B2017" t="n">
+        <v>29</v>
+      </c>
+      <c r="C2017" t="n">
+        <v>2610000</v>
+      </c>
+      <c r="E2017" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2017" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2017" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2017" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2017" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2017" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2017" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2017" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" t="inlineStr">
+        <is>
+          <t>Wallowa Lake_01151862</t>
+        </is>
+      </c>
+      <c r="B2018" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2018" t="n">
+        <v>810000</v>
+      </c>
+      <c r="E2018" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2018" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2018" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2018" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2018" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2018" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2018" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2018" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" t="inlineStr">
+        <is>
+          <t>Cultus Lake_01140537</t>
+        </is>
+      </c>
+      <c r="B2019" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2019" t="n">
+        <v>1170000</v>
+      </c>
+      <c r="E2019" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2019" t="n">
+        <v>34040.8242188</v>
+      </c>
+      <c r="G2019" t="n">
+        <v>27731.2475586</v>
+      </c>
+      <c r="H2019" t="n">
+        <v>9943.752216049999</v>
+      </c>
+      <c r="I2019" t="n">
+        <v>8673.95126663</v>
+      </c>
+      <c r="J2019" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2019" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2019" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" t="inlineStr">
+        <is>
+          <t>Green Peter Lake_01158878</t>
+        </is>
+      </c>
+      <c r="B2020" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2020" t="n">
+        <v>990000</v>
+      </c>
+      <c r="E2020" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2020" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2020" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2020" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2020" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2020" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2020" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2020" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" t="inlineStr">
+        <is>
+          <t>Malheur Lake_01123710</t>
+        </is>
+      </c>
+      <c r="B2021" t="n">
+        <v>39</v>
+      </c>
+      <c r="C2021" t="n">
+        <v>3510000</v>
+      </c>
+      <c r="E2021" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2021" t="n">
+        <v>194088.640625</v>
+      </c>
+      <c r="G2021" t="n">
+        <v>187779.063965</v>
+      </c>
+      <c r="H2021" t="n">
+        <v>21692.1562876</v>
+      </c>
+      <c r="I2021" t="n">
+        <v>37316.1505145</v>
+      </c>
+      <c r="J2021" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2021" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2021" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" t="inlineStr">
+        <is>
+          <t>Alkali Lake_01116863</t>
+        </is>
+      </c>
+      <c r="B2022" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2022" t="n">
+        <v>630000</v>
+      </c>
+      <c r="E2022" t="n">
+        <v>229086.84375</v>
+      </c>
+      <c r="F2022" t="n">
+        <v>1976970.75</v>
+      </c>
+      <c r="G2022" t="n">
+        <v>1747883.90625</v>
+      </c>
+      <c r="H2022" t="n">
+        <v>943131.549107</v>
+      </c>
+      <c r="I2022" t="n">
+        <v>623077.463083</v>
+      </c>
+      <c r="J2022" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2022" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2022" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" t="inlineStr">
+        <is>
+          <t>Gerber Reservoir_01121105</t>
+        </is>
+      </c>
+      <c r="B2023" t="n">
+        <v>37</v>
+      </c>
+      <c r="C2023" t="n">
+        <v>3330000</v>
+      </c>
+      <c r="E2023" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2023" t="n">
+        <v>636795.75</v>
+      </c>
+      <c r="G2023" t="n">
+        <v>630486.17334</v>
+      </c>
+      <c r="H2023" t="n">
+        <v>142323.633987</v>
+      </c>
+      <c r="I2023" t="n">
+        <v>157727.397687</v>
+      </c>
+      <c r="J2023" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2023" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2023" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" t="inlineStr">
+        <is>
+          <t>Aspen Lake_01161255</t>
+        </is>
+      </c>
+      <c r="B2024" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2024" t="n">
+        <v>1440000</v>
+      </c>
+      <c r="E2024" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2024" t="n">
+        <v>387257.90625</v>
+      </c>
+      <c r="G2024" t="n">
+        <v>380948.32959</v>
+      </c>
+      <c r="H2024" t="n">
+        <v>70806.9412842</v>
+      </c>
+      <c r="I2024" t="n">
+        <v>120418.030151</v>
+      </c>
+      <c r="J2024" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2024" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2024" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" t="inlineStr">
+        <is>
+          <t>Crater Lake_01163669</t>
+        </is>
+      </c>
+      <c r="B2025" t="n">
+        <v>467</v>
+      </c>
+      <c r="C2025" t="n">
+        <v>42030000</v>
+      </c>
+      <c r="E2025" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2025" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2025" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2025" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2025" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2025" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2025" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2025" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" t="inlineStr">
+        <is>
+          <t>Howard Prairie Lake_01158895</t>
+        </is>
+      </c>
+      <c r="B2026" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2026" t="n">
+        <v>1620000</v>
+      </c>
+      <c r="E2026" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2026" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2026" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2026" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2026" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2026" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2026" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2026" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" t="inlineStr">
+        <is>
+          <t>Upper Klamath Lake_01151685</t>
+        </is>
+      </c>
+      <c r="B2027" t="n">
+        <v>2386</v>
+      </c>
+      <c r="C2027" t="n">
+        <v>214740000</v>
+      </c>
+      <c r="E2027" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2027" t="n">
+        <v>310456.03125</v>
+      </c>
+      <c r="G2027" t="n">
+        <v>304146.45459</v>
+      </c>
+      <c r="H2027" t="n">
+        <v>18137.2360991</v>
+      </c>
+      <c r="I2027" t="n">
+        <v>32891.3448844</v>
+      </c>
+      <c r="J2027" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2027" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2027" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" t="inlineStr">
+        <is>
+          <t>Goose Lake_00224325</t>
+        </is>
+      </c>
+      <c r="B2028" t="n">
+        <v>68</v>
+      </c>
+      <c r="C2028" t="n">
+        <v>6120000</v>
+      </c>
+      <c r="E2028" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2028" t="n">
+        <v>1106624.125</v>
+      </c>
+      <c r="G2028" t="n">
+        <v>1100314.54834</v>
+      </c>
+      <c r="H2028" t="n">
+        <v>163839.839779</v>
+      </c>
+      <c r="I2028" t="n">
+        <v>256355.25413</v>
+      </c>
+      <c r="J2028" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2028" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2028" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" t="inlineStr">
+        <is>
+          <t>Drews Reservoir_01141243</t>
+        </is>
+      </c>
+      <c r="B2029" t="n">
+        <v>45</v>
+      </c>
+      <c r="C2029" t="n">
+        <v>4050000</v>
+      </c>
+      <c r="E2029" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2029" t="n">
+        <v>183653.90625</v>
+      </c>
+      <c r="G2029" t="n">
+        <v>177344.32959</v>
+      </c>
+      <c r="H2029" t="n">
+        <v>15323.278125</v>
+      </c>
+      <c r="I2029" t="n">
+        <v>30685.2162338</v>
+      </c>
+      <c r="J2029" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2029" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2029" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" t="inlineStr">
+        <is>
+          <t>Renner Lake_00267175</t>
+        </is>
+      </c>
+      <c r="B2030" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2030" t="n">
+        <v>360000</v>
+      </c>
+      <c r="E2030" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2030" t="n">
+        <v>46131.7851562</v>
+      </c>
+      <c r="G2030" t="n">
+        <v>39822.2084961</v>
+      </c>
+      <c r="H2030" t="n">
+        <v>16265.1287842</v>
+      </c>
+      <c r="I2030" t="n">
+        <v>17243.5220962</v>
+      </c>
+      <c r="J2030" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2030" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2030" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" t="inlineStr">
+        <is>
+          <t>Beulah Reservoir_01117569</t>
+        </is>
+      </c>
+      <c r="B2031" t="n">
+        <v>35</v>
+      </c>
+      <c r="C2031" t="n">
+        <v>3150000</v>
+      </c>
+      <c r="E2031" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2031" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2031" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2031" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2031" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2031" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2031" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2031" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" t="inlineStr">
+        <is>
+          <t>Warm Springs Reservoir_01128656</t>
+        </is>
+      </c>
+      <c r="B2032" t="n">
+        <v>33</v>
+      </c>
+      <c r="C2032" t="n">
+        <v>2970000</v>
+      </c>
+      <c r="E2032" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2032" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2032" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2032" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2032" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2032" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2032" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2032" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033" t="inlineStr">
+        <is>
+          <t>Upper Cow Lake_01119431</t>
+        </is>
+      </c>
+      <c r="B2033" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2033" t="n">
+        <v>990000</v>
+      </c>
+      <c r="E2033" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2033" t="n">
+        <v>270395.9375</v>
+      </c>
+      <c r="G2033" t="n">
+        <v>264086.36084</v>
+      </c>
+      <c r="H2033" t="n">
+        <v>104638.746316</v>
+      </c>
+      <c r="I2033" t="n">
+        <v>78522.32274410001</v>
+      </c>
+      <c r="J2033" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2033" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2033" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" t="inlineStr">
+        <is>
+          <t>McKay Reservoir_01132097</t>
+        </is>
+      </c>
+      <c r="B2034" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2034" t="n">
+        <v>810000</v>
+      </c>
+      <c r="E2034" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2034" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2034" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2034" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2034" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2034" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2034" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2034" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035" t="inlineStr">
+        <is>
+          <t>Lake Billy Chinook_01138120</t>
+        </is>
+      </c>
+      <c r="B2035" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2035" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E2035" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2035" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2035" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2035" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2035" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2035" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2035" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2035" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" t="inlineStr">
+        <is>
+          <t>Crane Prairie Reservoir_01140386</t>
+        </is>
+      </c>
+      <c r="B2036" t="n">
+        <v>68</v>
+      </c>
+      <c r="C2036" t="n">
+        <v>6120000</v>
+      </c>
+      <c r="E2036" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2036" t="n">
+        <v>151356.234375</v>
+      </c>
+      <c r="G2036" t="n">
+        <v>145046.657715</v>
+      </c>
+      <c r="H2036" t="n">
+        <v>9465.383458750001</v>
+      </c>
+      <c r="I2036" t="n">
+        <v>19250.0060162</v>
+      </c>
+      <c r="J2036" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2036" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2036" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" t="inlineStr">
+        <is>
+          <t>Wickiup Reservoir_01161711</t>
+        </is>
+      </c>
+      <c r="B2037" t="n">
+        <v>120</v>
+      </c>
+      <c r="C2037" t="n">
+        <v>10800000</v>
+      </c>
+      <c r="E2037" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2037" t="n">
+        <v>183653.90625</v>
+      </c>
+      <c r="G2037" t="n">
+        <v>177344.32959</v>
+      </c>
+      <c r="H2037" t="n">
+        <v>16929.1826375</v>
+      </c>
+      <c r="I2037" t="n">
+        <v>32238.5263418</v>
+      </c>
+      <c r="J2037" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2037" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2037" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" t="inlineStr">
+        <is>
+          <t>Davis Lake_01140666</t>
+        </is>
+      </c>
+      <c r="B2038" t="n">
+        <v>87</v>
+      </c>
+      <c r="C2038" t="n">
+        <v>7830000</v>
+      </c>
+      <c r="E2038" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2038" t="n">
+        <v>672977.125</v>
+      </c>
+      <c r="G2038" t="n">
+        <v>666667.54834</v>
+      </c>
+      <c r="H2038" t="n">
+        <v>41307.10493</v>
+      </c>
+      <c r="I2038" t="n">
+        <v>108233.153812</v>
+      </c>
+      <c r="J2038" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2038" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2038" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" t="inlineStr">
+        <is>
+          <t>Odell Lake_01147159</t>
+        </is>
+      </c>
+      <c r="B2039" t="n">
+        <v>92</v>
+      </c>
+      <c r="C2039" t="n">
+        <v>8280000</v>
+      </c>
+      <c r="E2039" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2039" t="n">
+        <v>121338.921875</v>
+      </c>
+      <c r="G2039" t="n">
+        <v>115029.345215</v>
+      </c>
+      <c r="H2039" t="n">
+        <v>7559.89562988</v>
+      </c>
+      <c r="I2039" t="n">
+        <v>11927.282795</v>
+      </c>
+      <c r="J2039" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2039" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2039" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" t="inlineStr">
+        <is>
+          <t>Paulina Lake_01147502</t>
+        </is>
+      </c>
+      <c r="B2040" t="n">
+        <v>32</v>
+      </c>
+      <c r="C2040" t="n">
+        <v>2880000</v>
+      </c>
+      <c r="E2040" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2040" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2040" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2040" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2040" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2040" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2040" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2040" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041" t="inlineStr">
+        <is>
+          <t>Crescent Lake_01158186</t>
+        </is>
+      </c>
+      <c r="B2041" t="n">
+        <v>104</v>
+      </c>
+      <c r="C2041" t="n">
+        <v>9360000</v>
+      </c>
+      <c r="E2041" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2041" t="n">
+        <v>199526.3125</v>
+      </c>
+      <c r="G2041" t="n">
+        <v>193216.73584</v>
+      </c>
+      <c r="H2041" t="n">
+        <v>13690.5505794</v>
+      </c>
+      <c r="I2041" t="n">
+        <v>29494.0036797</v>
+      </c>
+      <c r="J2041" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2041" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2041" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" t="inlineStr">
+        <is>
+          <t>Cold Springs Reservoir_01119125</t>
+        </is>
+      </c>
+      <c r="B2042" t="n">
+        <v>25</v>
+      </c>
+      <c r="C2042" t="n">
+        <v>2250000</v>
+      </c>
+      <c r="E2042" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2042" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2042" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2042" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2042" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2042" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2042" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2042" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" t="inlineStr">
+        <is>
+          <t>Lake Umatilla_01513298</t>
+        </is>
+      </c>
+      <c r="B2043" t="n">
+        <v>424</v>
+      </c>
+      <c r="C2043" t="n">
+        <v>38160000</v>
+      </c>
+      <c r="E2043" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2043" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2043" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2043" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2043" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2043" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2043" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2043" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" t="inlineStr">
+        <is>
+          <t>Dorena Lake_01120032</t>
+        </is>
+      </c>
+      <c r="B2044" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2044" t="n">
+        <v>1440000</v>
+      </c>
+      <c r="E2044" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2044" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2044" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2044" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2044" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2044" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2044" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2044" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" t="inlineStr">
+        <is>
+          <t>Cottage Grove Lake_01158179</t>
+        </is>
+      </c>
+      <c r="B2045" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2045" t="n">
+        <v>360000</v>
+      </c>
+      <c r="E2045" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2045" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2045" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2045" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2045" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2045" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2045" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2045" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" t="inlineStr">
+        <is>
+          <t>Fern Ridge Lake_01120678</t>
+        </is>
+      </c>
+      <c r="B2046" t="n">
+        <v>205</v>
+      </c>
+      <c r="C2046" t="n">
+        <v>18450000</v>
+      </c>
+      <c r="E2046" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2046" t="n">
+        <v>183653.90625</v>
+      </c>
+      <c r="G2046" t="n">
+        <v>177344.32959</v>
+      </c>
+      <c r="H2046" t="n">
+        <v>13148.4916968</v>
+      </c>
+      <c r="I2046" t="n">
+        <v>23052.1307623</v>
+      </c>
+      <c r="J2046" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2046" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2046" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047" t="inlineStr">
+        <is>
+          <t>Foster Lake_01158892</t>
+        </is>
+      </c>
+      <c r="B2047" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2047" t="n">
+        <v>630000</v>
+      </c>
+      <c r="E2047" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2047" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2047" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2047" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2047" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2047" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2047" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2047" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" t="inlineStr">
+        <is>
+          <t>Henry Hagg Lake_01158095</t>
+        </is>
+      </c>
+      <c r="B2048" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2048" t="n">
+        <v>1170000</v>
+      </c>
+      <c r="E2048" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2048" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2048" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2048" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2048" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2048" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2048" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2048" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" t="inlineStr">
+        <is>
+          <t>Hills Creek Lake_01158881</t>
+        </is>
+      </c>
+      <c r="B2049" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2049" t="n">
+        <v>720000</v>
+      </c>
+      <c r="E2049" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2049" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2049" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2049" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2049" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2049" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2049" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2049" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" t="inlineStr">
+        <is>
+          <t>Waldo Lake_01151818</t>
+        </is>
+      </c>
+      <c r="B2050" t="n">
+        <v>97</v>
+      </c>
+      <c r="C2050" t="n">
+        <v>8730000</v>
+      </c>
+      <c r="E2050" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2050" t="n">
+        <v>108642.617188</v>
+      </c>
+      <c r="G2050" t="n">
+        <v>102333.040527</v>
+      </c>
+      <c r="H2050" t="n">
+        <v>7364.55645941</v>
+      </c>
+      <c r="I2050" t="n">
+        <v>10336.6487884</v>
+      </c>
+      <c r="J2050" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2050" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2050" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051" t="inlineStr">
+        <is>
+          <t>Detroit Lake_01639301</t>
+        </is>
+      </c>
+      <c r="B2051" t="n">
+        <v>28</v>
+      </c>
+      <c r="C2051" t="n">
+        <v>2520000</v>
+      </c>
+      <c r="E2051" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2051" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2051" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2051" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2051" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2051" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2051" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2051" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" t="inlineStr">
+        <is>
+          <t>Sturgeon Lake_01127681</t>
+        </is>
+      </c>
+      <c r="B2052" t="n">
+        <v>23</v>
+      </c>
+      <c r="C2052" t="n">
+        <v>2070000</v>
+      </c>
+      <c r="E2052" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2052" t="n">
+        <v>496592.40625</v>
+      </c>
+      <c r="G2052" t="n">
+        <v>490282.82959</v>
+      </c>
+      <c r="H2052" t="n">
+        <v>27626.2214249</v>
+      </c>
+      <c r="I2052" t="n">
+        <v>99983.9265513</v>
+      </c>
+      <c r="J2052" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2052" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2052" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" t="inlineStr">
+        <is>
+          <t>Lost Creek Lake_01158890</t>
+        </is>
+      </c>
+      <c r="B2053" t="n">
+        <v>33</v>
+      </c>
+      <c r="C2053" t="n">
+        <v>2970000</v>
+      </c>
+      <c r="E2053" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2053" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2053" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2053" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2053" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2053" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2053" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2053" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054" t="inlineStr">
+        <is>
+          <t>Siltcoos Lake_01158483</t>
+        </is>
+      </c>
+      <c r="B2054" t="n">
+        <v>29</v>
+      </c>
+      <c r="C2054" t="n">
+        <v>2610000</v>
+      </c>
+      <c r="E2054" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2054" t="n">
+        <v>483059.09375</v>
+      </c>
+      <c r="G2054" t="n">
+        <v>476749.51709</v>
+      </c>
+      <c r="H2054" t="n">
+        <v>192911.058442</v>
+      </c>
+      <c r="I2054" t="n">
+        <v>113806.812315</v>
+      </c>
+      <c r="J2054" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2054" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2054" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055" t="inlineStr">
+        <is>
+          <t>Summer Lake_01150595</t>
+        </is>
+      </c>
+      <c r="B2055" t="n">
+        <v>254</v>
+      </c>
+      <c r="C2055" t="n">
+        <v>22860000</v>
+      </c>
+      <c r="E2055" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2055" t="n">
+        <v>554626</v>
+      </c>
+      <c r="G2055" t="n">
+        <v>548316.42334</v>
+      </c>
+      <c r="H2055" t="n">
+        <v>138098.907494</v>
+      </c>
+      <c r="I2055" t="n">
+        <v>127024.80889</v>
+      </c>
+      <c r="J2055" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2055" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2055" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" t="inlineStr">
+        <is>
+          <t>Lake Abert_01116755</t>
+        </is>
+      </c>
+      <c r="B2056" t="n">
+        <v>115</v>
+      </c>
+      <c r="C2056" t="n">
+        <v>10350000</v>
+      </c>
+      <c r="E2056" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2056" t="n">
+        <v>731139.625</v>
+      </c>
+      <c r="G2056" t="n">
+        <v>724830.04834</v>
+      </c>
+      <c r="H2056" t="n">
+        <v>192513.662942</v>
+      </c>
+      <c r="I2056" t="n">
+        <v>154154.968619</v>
+      </c>
+      <c r="J2056" t="n">
+        <v>95</v>
+      </c>
+      <c r="K2056" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2056" s="12" t="n">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" t="inlineStr">
+        <is>
+          <t>Lake of the Woods_01161601</t>
+        </is>
+      </c>
+      <c r="B2057" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2057" t="n">
+        <v>1710000</v>
+      </c>
+      <c r="E2057" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2057" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2057" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2057" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2057" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2057" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2057" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2057" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="A2058" t="inlineStr">
+        <is>
+          <t>Lake Owyhee_01125099</t>
+        </is>
+      </c>
+      <c r="B2058" t="n">
+        <v>54</v>
+      </c>
+      <c r="C2058" t="n">
+        <v>4860000</v>
+      </c>
+      <c r="E2058" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2058" t="n">
+        <v>554626</v>
+      </c>
+      <c r="G2058" t="n">
+        <v>548316.42334</v>
+      </c>
+      <c r="H2058" t="n">
+        <v>31745.7498734</v>
+      </c>
+      <c r="I2058" t="n">
+        <v>88340.5998716</v>
+      </c>
+      <c r="J2058" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2058" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2058" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="A2059" t="inlineStr">
+        <is>
+          <t>Brownlee Reservoir_00378278</t>
+        </is>
+      </c>
+      <c r="B2059" t="n">
+        <v>54</v>
+      </c>
+      <c r="C2059" t="n">
+        <v>4860000</v>
+      </c>
+      <c r="E2059" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2059" t="n">
+        <v>1018591.6875</v>
+      </c>
+      <c r="G2059" t="n">
+        <v>1012282.11084</v>
+      </c>
+      <c r="H2059" t="n">
+        <v>39023.9060239</v>
+      </c>
+      <c r="I2059" t="n">
+        <v>154641.863813</v>
+      </c>
+      <c r="J2059" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2059" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2059" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060" t="inlineStr">
+        <is>
+          <t>Wallowa Lake_01151862</t>
+        </is>
+      </c>
+      <c r="B2060" t="n">
+        <v>28</v>
+      </c>
+      <c r="C2060" t="n">
+        <v>2520000</v>
+      </c>
+      <c r="E2060" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2060" t="n">
+        <v>483059.09375</v>
+      </c>
+      <c r="G2060" t="n">
+        <v>476749.51709</v>
+      </c>
+      <c r="H2060" t="n">
+        <v>30469.9719936</v>
+      </c>
+      <c r="I2060" t="n">
+        <v>94580.0520411</v>
+      </c>
+      <c r="J2060" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2060" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2060" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" t="inlineStr">
+        <is>
+          <t>Cultus Lake_01140537</t>
+        </is>
+      </c>
+      <c r="B2061" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2061" t="n">
+        <v>1170000</v>
+      </c>
+      <c r="E2061" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2061" t="n">
+        <v>118032.078125</v>
+      </c>
+      <c r="G2061" t="n">
+        <v>111722.501465</v>
+      </c>
+      <c r="H2061" t="n">
+        <v>23391.2492488</v>
+      </c>
+      <c r="I2061" t="n">
+        <v>39043.9935853</v>
+      </c>
+      <c r="J2061" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2061" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2061" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" t="inlineStr">
+        <is>
+          <t>Malheur Lake_01123710</t>
+        </is>
+      </c>
+      <c r="B2062" t="n">
+        <v>215</v>
+      </c>
+      <c r="C2062" t="n">
+        <v>19350000</v>
+      </c>
+      <c r="E2062" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2062" t="n">
+        <v>409260.84375</v>
+      </c>
+      <c r="G2062" t="n">
+        <v>402951.26709</v>
+      </c>
+      <c r="H2062" t="n">
+        <v>158747.670705</v>
+      </c>
+      <c r="I2062" t="n">
+        <v>88613.27727000001</v>
+      </c>
+      <c r="J2062" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2062" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2062" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063" t="inlineStr">
+        <is>
+          <t>Alkali Lake_01116863</t>
+        </is>
+      </c>
+      <c r="B2063" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2063" t="n">
+        <v>630000</v>
+      </c>
+      <c r="E2063" t="n">
+        <v>199526.3125</v>
+      </c>
+      <c r="F2063" t="n">
+        <v>2754230.5</v>
+      </c>
+      <c r="G2063" t="n">
+        <v>2554704.1875</v>
+      </c>
+      <c r="H2063" t="n">
+        <v>1442373.14286</v>
+      </c>
+      <c r="I2063" t="n">
+        <v>756040.647601</v>
+      </c>
+      <c r="J2063" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2063" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2063" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" t="inlineStr">
+        <is>
+          <t>Gerber Reservoir_01121105</t>
+        </is>
+      </c>
+      <c r="B2064" t="n">
+        <v>64</v>
+      </c>
+      <c r="C2064" t="n">
+        <v>5760000</v>
+      </c>
+      <c r="E2064" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2064" t="n">
+        <v>366437.6875</v>
+      </c>
+      <c r="G2064" t="n">
+        <v>360128.11084</v>
+      </c>
+      <c r="H2064" t="n">
+        <v>56320.9740219</v>
+      </c>
+      <c r="I2064" t="n">
+        <v>96206.0997777</v>
+      </c>
+      <c r="J2064" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2064" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2064" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065" t="inlineStr">
+        <is>
+          <t>Aspen Lake_01161255</t>
+        </is>
+      </c>
+      <c r="B2065" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2065" t="n">
+        <v>810000</v>
+      </c>
+      <c r="E2065" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2065" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2065" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2065" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2065" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2065" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2065" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2065" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066" t="inlineStr">
+        <is>
+          <t>Crater Lake_01163669</t>
+        </is>
+      </c>
+      <c r="B2066" t="n">
+        <v>475</v>
+      </c>
+      <c r="C2066" t="n">
+        <v>42750000</v>
+      </c>
+      <c r="E2066" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2066" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2066" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2066" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2066" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2066" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2066" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2066" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067" t="inlineStr">
+        <is>
+          <t>Howard Prairie Lake_01158895</t>
+        </is>
+      </c>
+      <c r="B2067" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2067" t="n">
+        <v>1620000</v>
+      </c>
+      <c r="E2067" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2067" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2067" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2067" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2067" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2067" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2067" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2067" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="A2068" t="inlineStr">
+        <is>
+          <t>Upper Klamath Lake_01151685</t>
+        </is>
+      </c>
+      <c r="B2068" t="n">
+        <v>2404</v>
+      </c>
+      <c r="C2068" t="n">
+        <v>216360000</v>
+      </c>
+      <c r="E2068" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2068" t="n">
+        <v>199526.3125</v>
+      </c>
+      <c r="G2068" t="n">
+        <v>193216.73584</v>
+      </c>
+      <c r="H2068" t="n">
+        <v>8199.285640669999</v>
+      </c>
+      <c r="I2068" t="n">
+        <v>13082.8629337</v>
+      </c>
+      <c r="J2068" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2068" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2068" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069" t="inlineStr">
+        <is>
+          <t>Goose Lake_00224325</t>
+        </is>
+      </c>
+      <c r="B2069" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2069" t="n">
+        <v>1080000</v>
+      </c>
+      <c r="E2069" t="n">
+        <v>94623.78125</v>
+      </c>
+      <c r="F2069" t="n">
+        <v>887156.375</v>
+      </c>
+      <c r="G2069" t="n">
+        <v>792532.59375</v>
+      </c>
+      <c r="H2069" t="n">
+        <v>509103.591146</v>
+      </c>
+      <c r="I2069" t="n">
+        <v>227720.063964</v>
+      </c>
+      <c r="J2069" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2069" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2069" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070" t="inlineStr">
+        <is>
+          <t>Drews Reservoir_01141243</t>
+        </is>
+      </c>
+      <c r="B2070" t="n">
+        <v>47</v>
+      </c>
+      <c r="C2070" t="n">
+        <v>4230000</v>
+      </c>
+      <c r="E2070" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2070" t="n">
+        <v>124738.414062</v>
+      </c>
+      <c r="G2070" t="n">
+        <v>118428.837402</v>
+      </c>
+      <c r="H2070" t="n">
+        <v>11479.6770591</v>
+      </c>
+      <c r="I2070" t="n">
+        <v>20278.5480916</v>
+      </c>
+      <c r="J2070" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2070" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2070" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071" t="inlineStr">
+        <is>
+          <t>Renner Lake_00267175</t>
+        </is>
+      </c>
+      <c r="B2071" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2071" t="n">
+        <v>360000</v>
+      </c>
+      <c r="E2071" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2071" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2071" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2071" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2071" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2071" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2071" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2071" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="A2072" t="inlineStr">
+        <is>
+          <t>Beulah Reservoir_01117569</t>
+        </is>
+      </c>
+      <c r="B2072" t="n">
+        <v>41</v>
+      </c>
+      <c r="C2072" t="n">
+        <v>3690000</v>
+      </c>
+      <c r="E2072" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2072" t="n">
+        <v>235505.046875</v>
+      </c>
+      <c r="G2072" t="n">
+        <v>229195.470215</v>
+      </c>
+      <c r="H2072" t="n">
+        <v>11899.71008</v>
+      </c>
+      <c r="I2072" t="n">
+        <v>35355.1080621</v>
+      </c>
+      <c r="J2072" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2072" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2072" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073" t="inlineStr">
+        <is>
+          <t>Warm Springs Reservoir_01128656</t>
+        </is>
+      </c>
+      <c r="B2073" t="n">
+        <v>67</v>
+      </c>
+      <c r="C2073" t="n">
+        <v>6030000</v>
+      </c>
+      <c r="E2073" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2073" t="n">
+        <v>263026.84375</v>
+      </c>
+      <c r="G2073" t="n">
+        <v>256717.26709</v>
+      </c>
+      <c r="H2073" t="n">
+        <v>19529.0216156</v>
+      </c>
+      <c r="I2073" t="n">
+        <v>49822.76511</v>
+      </c>
+      <c r="J2073" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2073" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2073" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" t="inlineStr">
+        <is>
+          <t>Thief Valley Reservoir_01128007</t>
+        </is>
+      </c>
+      <c r="B2074" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2074" t="n">
+        <v>540000</v>
+      </c>
+      <c r="E2074" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2074" t="n">
+        <v>602559.875</v>
+      </c>
+      <c r="G2074" t="n">
+        <v>596250.29834</v>
+      </c>
+      <c r="H2074" t="n">
+        <v>191343.699788</v>
+      </c>
+      <c r="I2074" t="n">
+        <v>228364.078202</v>
+      </c>
+      <c r="J2074" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2074" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2074" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" t="inlineStr">
+        <is>
+          <t>Upper Cow Lake_01119431</t>
+        </is>
+      </c>
+      <c r="B2075" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2075" t="n">
+        <v>1170000</v>
+      </c>
+      <c r="E2075" t="n">
+        <v>46131.7851562</v>
+      </c>
+      <c r="F2075" t="n">
+        <v>398107.53125</v>
+      </c>
+      <c r="G2075" t="n">
+        <v>351975.746094</v>
+      </c>
+      <c r="H2075" t="n">
+        <v>157229.10006</v>
+      </c>
+      <c r="I2075" t="n">
+        <v>85844.5045556</v>
+      </c>
+      <c r="J2075" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2075" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2075" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" t="inlineStr">
+        <is>
+          <t>McKay Reservoir_01132097</t>
+        </is>
+      </c>
+      <c r="B2076" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2076" t="n">
+        <v>810000</v>
+      </c>
+      <c r="E2076" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2076" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2076" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2076" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2076" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2076" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2076" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2076" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077" t="inlineStr">
+        <is>
+          <t>Lake Billy Chinook_01138120</t>
+        </is>
+      </c>
+      <c r="B2077" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2077" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E2077" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2077" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2077" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2077" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2077" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2077" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2077" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2077" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" t="inlineStr">
+        <is>
+          <t>Crane Prairie Reservoir_01140386</t>
+        </is>
+      </c>
+      <c r="B2078" t="n">
+        <v>107</v>
+      </c>
+      <c r="C2078" t="n">
+        <v>9630000</v>
+      </c>
+      <c r="E2078" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2078" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2078" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2078" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2078" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2078" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2078" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2078" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" t="inlineStr">
+        <is>
+          <t>Wickiup Reservoir_01161711</t>
+        </is>
+      </c>
+      <c r="B2079" t="n">
+        <v>55</v>
+      </c>
+      <c r="C2079" t="n">
+        <v>4950000</v>
+      </c>
+      <c r="E2079" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2079" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2079" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2079" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2079" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2079" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2079" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2079" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" t="inlineStr">
+        <is>
+          <t>Davis Lake_01140666</t>
+        </is>
+      </c>
+      <c r="B2080" t="n">
+        <v>87</v>
+      </c>
+      <c r="C2080" t="n">
+        <v>7830000</v>
+      </c>
+      <c r="E2080" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2080" t="n">
+        <v>636795.75</v>
+      </c>
+      <c r="G2080" t="n">
+        <v>630486.17334</v>
+      </c>
+      <c r="H2080" t="n">
+        <v>49763.6777624</v>
+      </c>
+      <c r="I2080" t="n">
+        <v>132775.100911</v>
+      </c>
+      <c r="J2080" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2080" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2080" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" t="inlineStr">
+        <is>
+          <t>Odell Lake_01147159</t>
+        </is>
+      </c>
+      <c r="B2081" t="n">
+        <v>92</v>
+      </c>
+      <c r="C2081" t="n">
+        <v>8280000</v>
+      </c>
+      <c r="E2081" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2081" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2081" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2081" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2081" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2081" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2081" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2081" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" t="inlineStr">
+        <is>
+          <t>Paulina Lake_01147502</t>
+        </is>
+      </c>
+      <c r="B2082" t="n">
+        <v>33</v>
+      </c>
+      <c r="C2082" t="n">
+        <v>2970000</v>
+      </c>
+      <c r="E2082" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2082" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2082" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2082" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2082" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2082" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2082" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2082" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" t="inlineStr">
+        <is>
+          <t>Crescent Lake_01158186</t>
+        </is>
+      </c>
+      <c r="B2083" t="n">
+        <v>109</v>
+      </c>
+      <c r="C2083" t="n">
+        <v>9810000</v>
+      </c>
+      <c r="E2083" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2083" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2083" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2083" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2083" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2083" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2083" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2083" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" t="inlineStr">
+        <is>
+          <t>Cold Springs Reservoir_01119125</t>
+        </is>
+      </c>
+      <c r="B2084" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2084" t="n">
+        <v>2160000</v>
+      </c>
+      <c r="E2084" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2084" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2084" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2084" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2084" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2084" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2084" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2084" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" t="inlineStr">
+        <is>
+          <t>Lake Umatilla_01513298</t>
+        </is>
+      </c>
+      <c r="B2085" t="n">
+        <v>424</v>
+      </c>
+      <c r="C2085" t="n">
+        <v>38160000</v>
+      </c>
+      <c r="E2085" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2085" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2085" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2085" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2085" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2085" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2085" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2085" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086" t="inlineStr">
+        <is>
+          <t>Fern Ridge Lake_01120678</t>
+        </is>
+      </c>
+      <c r="B2086" t="n">
+        <v>193</v>
+      </c>
+      <c r="C2086" t="n">
+        <v>17370000</v>
+      </c>
+      <c r="E2086" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2086" t="n">
+        <v>216770.515625</v>
+      </c>
+      <c r="G2086" t="n">
+        <v>210460.938965</v>
+      </c>
+      <c r="H2086" t="n">
+        <v>10193.7725242</v>
+      </c>
+      <c r="I2086" t="n">
+        <v>23712.6579995</v>
+      </c>
+      <c r="J2086" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2086" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2086" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="A2087" t="inlineStr">
+        <is>
+          <t>Hills Creek Lake_01158881</t>
+        </is>
+      </c>
+      <c r="B2087" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2087" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E2087" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2087" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2087" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2087" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2087" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2087" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2087" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2087" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" t="inlineStr">
+        <is>
+          <t>Fall Creek Lake_01158871</t>
+        </is>
+      </c>
+      <c r="B2088" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2088" t="n">
+        <v>180000</v>
+      </c>
+      <c r="E2088" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2088" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2088" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2088" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2088" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2088" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2088" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2088" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" t="inlineStr">
+        <is>
+          <t>Waldo Lake_01151818</t>
+        </is>
+      </c>
+      <c r="B2089" t="n">
+        <v>173</v>
+      </c>
+      <c r="C2089" t="n">
+        <v>15570000</v>
+      </c>
+      <c r="E2089" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2089" t="n">
+        <v>128233.140625</v>
+      </c>
+      <c r="G2089" t="n">
+        <v>121923.563965</v>
+      </c>
+      <c r="H2089" t="n">
+        <v>9528.415510409999</v>
+      </c>
+      <c r="I2089" t="n">
+        <v>16662.723865</v>
+      </c>
+      <c r="J2089" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2089" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2089" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" t="inlineStr">
+        <is>
+          <t>Timothy Lake_01151253</t>
+        </is>
+      </c>
+      <c r="B2090" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2090" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="E2090" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2090" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2090" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2090" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2090" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2090" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2090" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2090" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" t="inlineStr">
+        <is>
+          <t>Detroit Lake_01639301</t>
+        </is>
+      </c>
+      <c r="B2091" t="n">
+        <v>15</v>
+      </c>
+      <c r="C2091" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="E2091" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2091" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2091" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2091" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2091" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2091" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2091" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2091" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" t="inlineStr">
+        <is>
+          <t>Sturgeon Lake_01127681</t>
+        </is>
+      </c>
+      <c r="B2092" t="n">
+        <v>34</v>
+      </c>
+      <c r="C2092" t="n">
+        <v>3060000</v>
+      </c>
+      <c r="E2092" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2092" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2092" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2092" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2092" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2092" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2092" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2092" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093" t="inlineStr">
+        <is>
+          <t>Lost Creek Lake_01158890</t>
+        </is>
+      </c>
+      <c r="B2093" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2093" t="n">
+        <v>360000</v>
+      </c>
+      <c r="E2093" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2093" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2093" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2093" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2093" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2093" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2093" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2093" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="A2094" t="inlineStr">
+        <is>
+          <t>Siltcoos Lake_01158483</t>
+        </is>
+      </c>
+      <c r="B2094" t="n">
+        <v>30</v>
+      </c>
+      <c r="C2094" t="n">
+        <v>2700000</v>
+      </c>
+      <c r="E2094" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2094" t="n">
+        <v>432513.96875</v>
+      </c>
+      <c r="G2094" t="n">
+        <v>426204.39209</v>
+      </c>
+      <c r="H2094" t="n">
+        <v>142725.976758</v>
+      </c>
+      <c r="I2094" t="n">
+        <v>130192.592464</v>
+      </c>
+      <c r="J2094" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2094" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2094" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="A2095" t="inlineStr">
+        <is>
+          <t>Summer Lake_01150595</t>
+        </is>
+      </c>
+      <c r="B2095" t="n">
+        <v>523</v>
+      </c>
+      <c r="C2095" t="n">
+        <v>47070000</v>
+      </c>
+      <c r="E2095" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2095" t="n">
+        <v>794328.375</v>
+      </c>
+      <c r="G2095" t="n">
+        <v>788018.79834</v>
+      </c>
+      <c r="H2095" t="n">
+        <v>238402.925098</v>
+      </c>
+      <c r="I2095" t="n">
+        <v>173978.318931</v>
+      </c>
+      <c r="J2095" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2095" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2095" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="A2096" t="inlineStr">
+        <is>
+          <t>Lake Abert_01116755</t>
+        </is>
+      </c>
+      <c r="B2096" t="n">
+        <v>92</v>
+      </c>
+      <c r="C2096" t="n">
+        <v>8280000</v>
+      </c>
+      <c r="E2096" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2096" t="n">
+        <v>570164.3125</v>
+      </c>
+      <c r="G2096" t="n">
+        <v>563854.73584</v>
+      </c>
+      <c r="H2096" t="n">
+        <v>139908.926179</v>
+      </c>
+      <c r="I2096" t="n">
+        <v>134704.928284</v>
+      </c>
+      <c r="J2096" t="n">
+        <v>96</v>
+      </c>
+      <c r="K2096" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2096" s="12" t="n">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097" t="inlineStr">
+        <is>
+          <t>Lake Owyhee_01125099</t>
+        </is>
+      </c>
+      <c r="B2097" t="n">
+        <v>53</v>
+      </c>
+      <c r="C2097" t="n">
+        <v>4770000</v>
+      </c>
+      <c r="E2097" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2097" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2097" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2097" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2097" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2097" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2097" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2097" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="A2098" t="inlineStr">
+        <is>
+          <t>Brownlee Reservoir_00378278</t>
+        </is>
+      </c>
+      <c r="B2098" t="n">
+        <v>54</v>
+      </c>
+      <c r="C2098" t="n">
+        <v>4860000</v>
+      </c>
+      <c r="E2098" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2098" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2098" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2098" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2098" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2098" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2098" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2098" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" t="inlineStr">
+        <is>
+          <t>Wallowa Lake_01151862</t>
+        </is>
+      </c>
+      <c r="B2099" t="n">
+        <v>27</v>
+      </c>
+      <c r="C2099" t="n">
+        <v>2430000</v>
+      </c>
+      <c r="E2099" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2099" t="n">
+        <v>210862.984375</v>
+      </c>
+      <c r="G2099" t="n">
+        <v>204553.407715</v>
+      </c>
+      <c r="H2099" t="n">
+        <v>41433.0160952</v>
+      </c>
+      <c r="I2099" t="n">
+        <v>64798.9131037</v>
+      </c>
+      <c r="J2099" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2099" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2099" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="A2100" t="inlineStr">
+        <is>
+          <t>Cultus Lake_01140537</t>
+        </is>
+      </c>
+      <c r="B2100" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2100" t="n">
+        <v>1170000</v>
+      </c>
+      <c r="E2100" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2100" t="n">
+        <v>277971.46875</v>
+      </c>
+      <c r="G2100" t="n">
+        <v>271661.89209</v>
+      </c>
+      <c r="H2100" t="n">
+        <v>36316.5558519</v>
+      </c>
+      <c r="I2100" t="n">
+        <v>76520.549648</v>
+      </c>
+      <c r="J2100" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2100" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2100" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2101">
+      <c r="A2101" t="inlineStr">
+        <is>
+          <t>Green Peter Lake_01158878</t>
+        </is>
+      </c>
+      <c r="B2101" t="n">
+        <v>14</v>
+      </c>
+      <c r="C2101" t="n">
+        <v>1260000</v>
+      </c>
+      <c r="E2101" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2101" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2101" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2101" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2101" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2101" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="A2102" t="inlineStr">
+        <is>
+          <t>Malheur Lake_01123710</t>
+        </is>
+      </c>
+      <c r="B2102" t="n">
+        <v>202</v>
+      </c>
+      <c r="C2102" t="n">
+        <v>18180000</v>
+      </c>
+      <c r="E2102" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2102" t="n">
+        <v>457088.5</v>
+      </c>
+      <c r="G2102" t="n">
+        <v>450778.92334</v>
+      </c>
+      <c r="H2102" t="n">
+        <v>180129.549725</v>
+      </c>
+      <c r="I2102" t="n">
+        <v>131917.629243</v>
+      </c>
+      <c r="J2102" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2102" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2102" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="A2103" t="inlineStr">
+        <is>
+          <t>Alkali Lake_01116863</t>
+        </is>
+      </c>
+      <c r="B2103" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2103" t="n">
+        <v>630000</v>
+      </c>
+      <c r="E2103" t="n">
+        <v>619441.5</v>
+      </c>
+      <c r="F2103" t="n">
+        <v>2032358.625</v>
+      </c>
+      <c r="G2103" t="n">
+        <v>1412917.125</v>
+      </c>
+      <c r="H2103" t="n">
+        <v>1499651.57143</v>
+      </c>
+      <c r="I2103" t="n">
+        <v>421269.534639</v>
+      </c>
+      <c r="J2103" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2103" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2103" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104" t="inlineStr">
+        <is>
+          <t>Gerber Reservoir_01121105</t>
+        </is>
+      </c>
+      <c r="B2104" t="n">
+        <v>63</v>
+      </c>
+      <c r="C2104" t="n">
+        <v>5670000</v>
+      </c>
+      <c r="E2104" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2104" t="n">
+        <v>444631.5</v>
+      </c>
+      <c r="G2104" t="n">
+        <v>438321.92334</v>
+      </c>
+      <c r="H2104" t="n">
+        <v>100647.559989</v>
+      </c>
+      <c r="I2104" t="n">
+        <v>115904.27954</v>
+      </c>
+      <c r="J2104" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2104" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2104" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105" t="inlineStr">
+        <is>
+          <t>Crater Lake_01163669</t>
+        </is>
+      </c>
+      <c r="B2105" t="n">
+        <v>475</v>
+      </c>
+      <c r="C2105" t="n">
+        <v>42750000</v>
+      </c>
+      <c r="E2105" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2105" t="n">
+        <v>731139.625</v>
+      </c>
+      <c r="G2105" t="n">
+        <v>724830.04834</v>
+      </c>
+      <c r="H2105" t="n">
+        <v>19173.959521</v>
+      </c>
+      <c r="I2105" t="n">
+        <v>70759.2438174</v>
+      </c>
+      <c r="J2105" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2105" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2105" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="A2106" t="inlineStr">
+        <is>
+          <t>Howard Prairie Lake_01158895</t>
+        </is>
+      </c>
+      <c r="B2106" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2106" t="n">
+        <v>1710000</v>
+      </c>
+      <c r="E2106" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2106" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2106" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2106" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2106" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2106" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="A2107" t="inlineStr">
+        <is>
+          <t>Upper Klamath Lake_01151685</t>
+        </is>
+      </c>
+      <c r="B2107" t="n">
+        <v>2395</v>
+      </c>
+      <c r="C2107" t="n">
+        <v>215550000</v>
+      </c>
+      <c r="E2107" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2107" t="n">
+        <v>216770.515625</v>
+      </c>
+      <c r="G2107" t="n">
+        <v>210460.938965</v>
+      </c>
+      <c r="H2107" t="n">
+        <v>6692.05706265</v>
+      </c>
+      <c r="I2107" t="n">
+        <v>6857.94049653</v>
+      </c>
+      <c r="J2107" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2107" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2107" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="A2108" t="inlineStr">
+        <is>
+          <t>Goose Lake_00224325</t>
+        </is>
+      </c>
+      <c r="B2108" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2108" t="n">
+        <v>540000</v>
+      </c>
+      <c r="E2108" t="n">
+        <v>235505.046875</v>
+      </c>
+      <c r="F2108" t="n">
+        <v>1169500.25</v>
+      </c>
+      <c r="G2108" t="n">
+        <v>933995.203125</v>
+      </c>
+      <c r="H2108" t="n">
+        <v>629238.669271</v>
+      </c>
+      <c r="I2108" t="n">
+        <v>337355.620775</v>
+      </c>
+      <c r="J2108" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2108" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2108" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2109">
+      <c r="A2109" t="inlineStr">
+        <is>
+          <t>Drews Reservoir_01141243</t>
+        </is>
+      </c>
+      <c r="B2109" t="n">
+        <v>46</v>
+      </c>
+      <c r="C2109" t="n">
+        <v>4140000</v>
+      </c>
+      <c r="E2109" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2109" t="n">
+        <v>457088.5</v>
+      </c>
+      <c r="G2109" t="n">
+        <v>450778.92334</v>
+      </c>
+      <c r="H2109" t="n">
+        <v>39821.7543839</v>
+      </c>
+      <c r="I2109" t="n">
+        <v>78943.5833689</v>
+      </c>
+      <c r="J2109" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2109" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2109" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="A2110" t="inlineStr">
+        <is>
+          <t>Renner Lake_00267175</t>
+        </is>
+      </c>
+      <c r="B2110" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2110" t="n">
+        <v>360000</v>
+      </c>
+      <c r="E2110" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2110" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2110" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2110" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2110" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2110" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="A2111" t="inlineStr">
+        <is>
+          <t>Beulah Reservoir_01117569</t>
+        </is>
+      </c>
+      <c r="B2111" t="n">
+        <v>37</v>
+      </c>
+      <c r="C2111" t="n">
+        <v>3330000</v>
+      </c>
+      <c r="E2111" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2111" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2111" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2111" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2111" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2111" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="A2112" t="inlineStr">
+        <is>
+          <t>Warm Springs Reservoir_01128656</t>
+        </is>
+      </c>
+      <c r="B2112" t="n">
+        <v>65</v>
+      </c>
+      <c r="C2112" t="n">
+        <v>5850000</v>
+      </c>
+      <c r="E2112" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2112" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2112" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2112" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2112" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2112" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" t="inlineStr">
+        <is>
+          <t>Thief Valley Reservoir_01128007</t>
+        </is>
+      </c>
+      <c r="B2113" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2113" t="n">
+        <v>540000</v>
+      </c>
+      <c r="E2113" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2113" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2113" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2113" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2113" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2113" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" t="inlineStr">
+        <is>
+          <t>Upper Cow Lake_01119431</t>
+        </is>
+      </c>
+      <c r="B2114" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2114" t="n">
+        <v>1170000</v>
+      </c>
+      <c r="E2114" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2114" t="n">
+        <v>139315.6875</v>
+      </c>
+      <c r="G2114" t="n">
+        <v>133006.11084</v>
+      </c>
+      <c r="H2114" t="n">
+        <v>39833.1983173</v>
+      </c>
+      <c r="I2114" t="n">
+        <v>45360.3618903</v>
+      </c>
+      <c r="J2114" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2114" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2114" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" t="inlineStr">
+        <is>
+          <t>McKay Reservoir_01132097</t>
+        </is>
+      </c>
+      <c r="B2115" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2115" t="n">
+        <v>810000</v>
+      </c>
+      <c r="E2115" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2115" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2115" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2115" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2115" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2115" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" t="inlineStr">
+        <is>
+          <t>Lake Billy Chinook_01138120</t>
+        </is>
+      </c>
+      <c r="B2116" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2116" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E2116" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2116" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2116" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2116" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2116" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2116" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" t="inlineStr">
+        <is>
+          <t>Crane Prairie Reservoir_01140386</t>
+        </is>
+      </c>
+      <c r="B2117" t="n">
+        <v>107</v>
+      </c>
+      <c r="C2117" t="n">
+        <v>9630000</v>
+      </c>
+      <c r="E2117" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2117" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2117" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2117" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2117" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2117" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" t="inlineStr">
+        <is>
+          <t>Wickiup Reservoir_01161711</t>
+        </is>
+      </c>
+      <c r="B2118" t="n">
+        <v>197</v>
+      </c>
+      <c r="C2118" t="n">
+        <v>17730000</v>
+      </c>
+      <c r="E2118" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2118" t="n">
+        <v>356451.15625</v>
+      </c>
+      <c r="G2118" t="n">
+        <v>350141.57959</v>
+      </c>
+      <c r="H2118" t="n">
+        <v>21345.5570818</v>
+      </c>
+      <c r="I2118" t="n">
+        <v>48782.6579804</v>
+      </c>
+      <c r="J2118" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2118" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2118" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" t="inlineStr">
+        <is>
+          <t>Davis Lake_01140666</t>
+        </is>
+      </c>
+      <c r="B2119" t="n">
+        <v>87</v>
+      </c>
+      <c r="C2119" t="n">
+        <v>7830000</v>
+      </c>
+      <c r="E2119" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2119" t="n">
+        <v>398107.53125</v>
+      </c>
+      <c r="G2119" t="n">
+        <v>391797.95459</v>
+      </c>
+      <c r="H2119" t="n">
+        <v>53564.1172661</v>
+      </c>
+      <c r="I2119" t="n">
+        <v>99791.19873829999</v>
+      </c>
+      <c r="J2119" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2119" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2119" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" t="inlineStr">
+        <is>
+          <t>Odell Lake_01147159</t>
+        </is>
+      </c>
+      <c r="B2120" t="n">
+        <v>92</v>
+      </c>
+      <c r="C2120" t="n">
+        <v>8280000</v>
+      </c>
+      <c r="E2120" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2120" t="n">
+        <v>387257.90625</v>
+      </c>
+      <c r="G2120" t="n">
+        <v>380948.32959</v>
+      </c>
+      <c r="H2120" t="n">
+        <v>47540.3313625</v>
+      </c>
+      <c r="I2120" t="n">
+        <v>90236.7317791</v>
+      </c>
+      <c r="J2120" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2120" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2120" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" t="inlineStr">
+        <is>
+          <t>Paulina Lake_01147502</t>
+        </is>
+      </c>
+      <c r="B2121" t="n">
+        <v>30</v>
+      </c>
+      <c r="C2121" t="n">
+        <v>2700000</v>
+      </c>
+      <c r="E2121" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2121" t="n">
+        <v>131825.78125</v>
+      </c>
+      <c r="G2121" t="n">
+        <v>125516.20459</v>
+      </c>
+      <c r="H2121" t="n">
+        <v>15273.66639</v>
+      </c>
+      <c r="I2121" t="n">
+        <v>28068.7662485</v>
+      </c>
+      <c r="J2121" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2121" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2121" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" t="inlineStr">
+        <is>
+          <t>Crescent Lake_01158186</t>
+        </is>
+      </c>
+      <c r="B2122" t="n">
+        <v>110</v>
+      </c>
+      <c r="C2122" t="n">
+        <v>9900000</v>
+      </c>
+      <c r="E2122" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2122" t="n">
+        <v>205116.34375</v>
+      </c>
+      <c r="G2122" t="n">
+        <v>198806.76709</v>
+      </c>
+      <c r="H2122" t="n">
+        <v>15493.2740767</v>
+      </c>
+      <c r="I2122" t="n">
+        <v>33746.8394804</v>
+      </c>
+      <c r="J2122" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2122" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2122" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123" t="inlineStr">
+        <is>
+          <t>Cold Springs Reservoir_01119125</t>
+        </is>
+      </c>
+      <c r="B2123" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2123" t="n">
+        <v>2160000</v>
+      </c>
+      <c r="E2123" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2123" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2123" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2123" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2123" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2123" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124" t="inlineStr">
+        <is>
+          <t>Lake Umatilla_01513298</t>
+        </is>
+      </c>
+      <c r="B2124" t="n">
+        <v>423</v>
+      </c>
+      <c r="C2124" t="n">
+        <v>38070000</v>
+      </c>
+      <c r="E2124" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2124" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2124" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2124" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2124" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2124" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" t="inlineStr">
+        <is>
+          <t>Dorena Lake_01120032</t>
+        </is>
+      </c>
+      <c r="B2125" t="n">
+        <v>25</v>
+      </c>
+      <c r="C2125" t="n">
+        <v>2250000</v>
+      </c>
+      <c r="E2125" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2125" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2125" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2125" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2125" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2125" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126" t="inlineStr">
+        <is>
+          <t>Cottage Grove Lake_01158179</t>
+        </is>
+      </c>
+      <c r="B2126" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2126" t="n">
+        <v>1170000</v>
+      </c>
+      <c r="E2126" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2126" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2126" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2126" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2126" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2126" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" t="inlineStr">
+        <is>
+          <t>Fern Ridge Lake_01120678</t>
+        </is>
+      </c>
+      <c r="B2127" t="n">
+        <v>213</v>
+      </c>
+      <c r="C2127" t="n">
+        <v>19170000</v>
+      </c>
+      <c r="E2127" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2127" t="n">
+        <v>293765.0625</v>
+      </c>
+      <c r="G2127" t="n">
+        <v>287455.48584</v>
+      </c>
+      <c r="H2127" t="n">
+        <v>13764.1299195</v>
+      </c>
+      <c r="I2127" t="n">
+        <v>31981.8836469</v>
+      </c>
+      <c r="J2127" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2127" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2127" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128" t="inlineStr">
+        <is>
+          <t>Foster Lake_01158892</t>
+        </is>
+      </c>
+      <c r="B2128" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2128" t="n">
+        <v>630000</v>
+      </c>
+      <c r="E2128" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2128" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2128" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2128" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2128" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2128" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="A2129" t="inlineStr">
+        <is>
+          <t>Henry Hagg Lake_01158095</t>
+        </is>
+      </c>
+      <c r="B2129" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2129" t="n">
+        <v>1170000</v>
+      </c>
+      <c r="E2129" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2129" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2129" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2129" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2129" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2129" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="A2130" t="inlineStr">
+        <is>
+          <t>Hills Creek Lake_01158881</t>
+        </is>
+      </c>
+      <c r="B2130" t="n">
+        <v>15</v>
+      </c>
+      <c r="C2130" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="E2130" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2130" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2130" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2130" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2130" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2130" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" t="inlineStr">
+        <is>
+          <t>Fall Creek Lake_01158871</t>
+        </is>
+      </c>
+      <c r="B2131" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2131" t="n">
+        <v>900000</v>
+      </c>
+      <c r="E2131" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2131" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2131" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2131" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2131" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2131" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" t="inlineStr">
+        <is>
+          <t>Dexter Reservoir_01119918</t>
+        </is>
+      </c>
+      <c r="B2132" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2132" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E2132" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2132" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2132" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2132" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2132" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2132" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" t="inlineStr">
+        <is>
+          <t>Waldo Lake_01151818</t>
+        </is>
+      </c>
+      <c r="B2133" t="n">
+        <v>173</v>
+      </c>
+      <c r="C2133" t="n">
+        <v>15570000</v>
+      </c>
+      <c r="E2133" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2133" t="n">
+        <v>469894.28125</v>
+      </c>
+      <c r="G2133" t="n">
+        <v>463584.70459</v>
+      </c>
+      <c r="H2133" t="n">
+        <v>38528.8767668</v>
+      </c>
+      <c r="I2133" t="n">
+        <v>73878.2167937</v>
+      </c>
+      <c r="J2133" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2133" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2133" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" t="inlineStr">
+        <is>
+          <t>Timothy Lake_01151253</t>
+        </is>
+      </c>
+      <c r="B2134" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2134" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="E2134" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2134" t="n">
+        <v>143218.828125</v>
+      </c>
+      <c r="G2134" t="n">
+        <v>136909.251465</v>
+      </c>
+      <c r="H2134" t="n">
+        <v>25157.0447021</v>
+      </c>
+      <c r="I2134" t="n">
+        <v>44414.9903062</v>
+      </c>
+      <c r="J2134" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2134" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2134" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" t="inlineStr">
+        <is>
+          <t>Detroit Lake_01639301</t>
+        </is>
+      </c>
+      <c r="B2135" t="n">
+        <v>27</v>
+      </c>
+      <c r="C2135" t="n">
+        <v>2430000</v>
+      </c>
+      <c r="E2135" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2135" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2135" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2135" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2135" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2135" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" t="inlineStr">
+        <is>
+          <t>Sturgeon Lake_01127681</t>
+        </is>
+      </c>
+      <c r="B2136" t="n">
+        <v>34</v>
+      </c>
+      <c r="C2136" t="n">
+        <v>3060000</v>
+      </c>
+      <c r="E2136" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2136" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2136" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2136" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2136" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2136" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" t="inlineStr">
+        <is>
+          <t>Lost Creek Lake_01158890</t>
+        </is>
+      </c>
+      <c r="B2137" t="n">
+        <v>58</v>
+      </c>
+      <c r="C2137" t="n">
+        <v>5220000</v>
+      </c>
+      <c r="E2137" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2137" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2137" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2137" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2137" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2137" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" t="inlineStr">
+        <is>
+          <t>Siltcoos Lake_01158483</t>
+        </is>
+      </c>
+      <c r="B2138" t="n">
+        <v>30</v>
+      </c>
+      <c r="C2138" t="n">
+        <v>2700000</v>
+      </c>
+      <c r="E2138" t="n">
+        <v>9289.672851560001</v>
+      </c>
+      <c r="F2138" t="n">
+        <v>263026.84375</v>
+      </c>
+      <c r="G2138" t="n">
+        <v>253737.170898</v>
+      </c>
+      <c r="H2138" t="n">
+        <v>98589.59124350001</v>
+      </c>
+      <c r="I2138" t="n">
+        <v>55749.1734307</v>
+      </c>
+      <c r="J2138" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2138" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2138" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" t="inlineStr">
+        <is>
+          <t>Diamond Lake_01140999</t>
+        </is>
+      </c>
+      <c r="B2139" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2139" t="n">
+        <v>630000</v>
+      </c>
+      <c r="E2139" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2139" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2139" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2139" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2139" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2139" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" t="inlineStr">
+        <is>
+          <t>Summer Lake_01150595</t>
+        </is>
+      </c>
+      <c r="B2140" t="n">
+        <v>653</v>
+      </c>
+      <c r="C2140" t="n">
+        <v>58770000</v>
+      </c>
+      <c r="E2140" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2140" t="n">
+        <v>751623.1875</v>
+      </c>
+      <c r="G2140" t="n">
+        <v>745313.61084</v>
+      </c>
+      <c r="H2140" t="n">
+        <v>246071.463112</v>
+      </c>
+      <c r="I2140" t="n">
+        <v>165749.519062</v>
+      </c>
+      <c r="J2140" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2140" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2140" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" t="inlineStr">
+        <is>
+          <t>Lake Abert_01116755</t>
+        </is>
+      </c>
+      <c r="B2141" t="n">
+        <v>93</v>
+      </c>
+      <c r="C2141" t="n">
+        <v>8370000</v>
+      </c>
+      <c r="E2141" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2141" t="n">
+        <v>636795.75</v>
+      </c>
+      <c r="G2141" t="n">
+        <v>630486.17334</v>
+      </c>
+      <c r="H2141" t="n">
+        <v>167057.740922</v>
+      </c>
+      <c r="I2141" t="n">
+        <v>147638.354652</v>
+      </c>
+      <c r="J2141" t="n">
+        <v>97</v>
+      </c>
+      <c r="K2141" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2141" s="12" t="n">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" t="inlineStr">
+        <is>
+          <t>Alkali Lake_01116863</t>
+        </is>
+      </c>
+      <c r="B2142" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2142" t="n">
+        <v>630000</v>
+      </c>
+      <c r="E2142" t="n">
+        <v>444631.5</v>
+      </c>
+      <c r="F2142" t="n">
+        <v>1235948.125</v>
+      </c>
+      <c r="G2142" t="n">
+        <v>791316.625</v>
+      </c>
+      <c r="H2142" t="n">
+        <v>855336.549107</v>
+      </c>
+      <c r="I2142" t="n">
+        <v>309459.709731</v>
+      </c>
+      <c r="J2142" t="n">
+        <v>98</v>
+      </c>
+      <c r="K2142" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2142" s="12" t="n">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" t="inlineStr">
+        <is>
+          <t>Gerber Reservoir_01121105</t>
+        </is>
+      </c>
+      <c r="B2143" t="n">
+        <v>67</v>
+      </c>
+      <c r="C2143" t="n">
+        <v>6030000</v>
+      </c>
+      <c r="E2143" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2143" t="n">
+        <v>387257.90625</v>
+      </c>
+      <c r="G2143" t="n">
+        <v>380948.32959</v>
+      </c>
+      <c r="H2143" t="n">
+        <v>87818.1473079</v>
+      </c>
+      <c r="I2143" t="n">
+        <v>82572.4339611</v>
+      </c>
+      <c r="J2143" t="n">
+        <v>98</v>
+      </c>
+      <c r="K2143" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2143" s="12" t="n">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" t="inlineStr">
+        <is>
+          <t>Aspen Lake_01161255</t>
+        </is>
+      </c>
+      <c r="B2144" t="n">
+        <v>14</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>1260000</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2144" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2144" t="n">
+        <v>98</v>
+      </c>
+      <c r="K2144" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2144" s="12" t="n">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" t="inlineStr">
+        <is>
+          <t>Crater Lake_01163669</t>
+        </is>
+      </c>
+      <c r="B2145" t="n">
+        <v>180</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>16200000</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2145" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2145" t="n">
+        <v>98</v>
+      </c>
+      <c r="K2145" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2145" s="12" t="n">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" t="inlineStr">
+        <is>
+          <t>Upper Klamath Lake_01151685</t>
+        </is>
+      </c>
+      <c r="B2146" t="n">
+        <v>2194</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>197460000</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>255858.734375</v>
+      </c>
+      <c r="G2146" t="n">
+        <v>249549.157715</v>
+      </c>
+      <c r="H2146" t="n">
+        <v>22127.4384821</v>
+      </c>
+      <c r="I2146" t="n">
+        <v>36849.7825662</v>
+      </c>
+      <c r="J2146" t="n">
+        <v>98</v>
+      </c>
+      <c r="K2146" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2146" s="12" t="n">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" t="inlineStr">
+        <is>
+          <t>Goose Lake_00224325</t>
+        </is>
+      </c>
+      <c r="B2147" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>360000</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>199526.3125</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>711213.875</v>
+      </c>
+      <c r="G2147" t="n">
+        <v>511687.5625</v>
+      </c>
+      <c r="H2147" t="n">
+        <v>361888.515625</v>
+      </c>
+      <c r="I2147" t="n">
+        <v>209377.878251</v>
+      </c>
+      <c r="J2147" t="n">
+        <v>98</v>
+      </c>
+      <c r="K2147" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2147" s="12" t="n">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" t="inlineStr">
+        <is>
+          <t>Drews Reservoir_01141243</t>
+        </is>
+      </c>
+      <c r="B2148" t="n">
+        <v>48</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>4320000</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>210862.984375</v>
+      </c>
+      <c r="G2148" t="n">
+        <v>204553.407715</v>
+      </c>
+      <c r="H2148" t="n">
+        <v>31122.0581156</v>
+      </c>
+      <c r="I2148" t="n">
+        <v>44048.7060266</v>
+      </c>
+      <c r="J2148" t="n">
+        <v>98</v>
+      </c>
+      <c r="K2148" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2148" s="12" t="n">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" t="inlineStr">
+        <is>
+          <t>Lake Billy Chinook_01138120</t>
+        </is>
+      </c>
+      <c r="B2149" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>540000</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2149" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2149" t="n">
+        <v>98</v>
+      </c>
+      <c r="K2149" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2149" s="12" t="n">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" t="inlineStr">
+        <is>
+          <t>Crane Prairie Reservoir_01140386</t>
+        </is>
+      </c>
+      <c r="B2150" t="n">
+        <v>26</v>
+      </c>
+      <c r="C2150" t="n">
+        <v>2340000</v>
+      </c>
+      <c r="E2150" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>194088.640625</v>
+      </c>
+      <c r="G2150" t="n">
+        <v>187779.063965</v>
+      </c>
+      <c r="H2150" t="n">
+        <v>18021.2671086</v>
+      </c>
+      <c r="I2150" t="n">
+        <v>40370.3515018</v>
+      </c>
+      <c r="J2150" t="n">
+        <v>98</v>
+      </c>
+      <c r="K2150" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2150" s="12" t="n">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" t="inlineStr">
+        <is>
+          <t>Wickiup Reservoir_01161711</t>
+        </is>
+      </c>
+      <c r="B2151" t="n">
+        <v>123</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>11070000</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>10665.9638672</v>
+      </c>
+      <c r="G2151" t="n">
+        <v>4356.38720703</v>
+      </c>
+      <c r="H2151" t="n">
+        <v>6404.39334032</v>
+      </c>
+      <c r="I2151" t="n">
+        <v>604.200853135</v>
+      </c>
+      <c r="J2151" t="n">
+        <v>98</v>
+      </c>
+      <c r="K2151" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2151" s="12" t="n">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" t="inlineStr">
+        <is>
+          <t>Odell Lake_01147159</t>
+        </is>
+      </c>
+      <c r="B2152" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>1080000</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2152" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2152" t="n">
+        <v>98</v>
+      </c>
+      <c r="K2152" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2152" s="12" t="n">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" t="inlineStr">
+        <is>
+          <t>Paulina Lake_01147502</t>
+        </is>
+      </c>
+      <c r="B2153" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2153" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2153" t="n">
+        <v>98</v>
+      </c>
+      <c r="K2153" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2153" s="12" t="n">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" t="inlineStr">
+        <is>
+          <t>Lake Umatilla_01513298</t>
+        </is>
+      </c>
+      <c r="B2154" t="n">
+        <v>349</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>31410000</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2154" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2154" t="n">
+        <v>98</v>
+      </c>
+      <c r="K2154" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2154" s="12" t="n">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" t="inlineStr">
+        <is>
+          <t>Fern Ridge Lake_01120678</t>
+        </is>
+      </c>
+      <c r="B2155" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>1440000</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>155596.625</v>
+      </c>
+      <c r="G2155" t="n">
+        <v>149287.04834</v>
+      </c>
+      <c r="H2155" t="n">
+        <v>30368.7952881</v>
+      </c>
+      <c r="I2155" t="n">
+        <v>44701.0498296</v>
+      </c>
+      <c r="J2155" t="n">
+        <v>98</v>
+      </c>
+      <c r="K2155" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2155" s="12" t="n">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" t="inlineStr">
+        <is>
+          <t>Henry Hagg Lake_01158095</t>
+        </is>
+      </c>
+      <c r="B2156" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2156" t="n">
+        <v>720000</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2156" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2156" t="n">
+        <v>98</v>
+      </c>
+      <c r="K2156" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2156" s="12" t="n">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" t="inlineStr">
+        <is>
+          <t>Dexter Reservoir_01119918</t>
+        </is>
+      </c>
+      <c r="B2157" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>360000</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2157" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2157" t="n">
+        <v>98</v>
+      </c>
+      <c r="K2157" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2157" s="12" t="n">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" t="inlineStr">
+        <is>
+          <t>Timothy Lake_01151253</t>
+        </is>
+      </c>
+      <c r="B2158" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>1620000</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2158" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2158" t="n">
+        <v>98</v>
+      </c>
+      <c r="K2158" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2158" s="12" t="n">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" t="inlineStr">
+        <is>
+          <t>Detroit Lake_01639301</t>
+        </is>
+      </c>
+      <c r="B2159" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>1080000</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2159" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2159" t="n">
+        <v>98</v>
+      </c>
+      <c r="K2159" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2159" s="12" t="n">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" t="inlineStr">
+        <is>
+          <t>Sturgeon Lake_01127681</t>
+        </is>
+      </c>
+      <c r="B2160" t="n">
+        <v>17</v>
+      </c>
+      <c r="C2160" t="n">
+        <v>1530000</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>337287.5625</v>
+      </c>
+      <c r="G2160" t="n">
+        <v>330977.98584</v>
+      </c>
+      <c r="H2160" t="n">
+        <v>52216.7027803</v>
+      </c>
+      <c r="I2160" t="n">
+        <v>92228.1146307</v>
+      </c>
+      <c r="J2160" t="n">
+        <v>98</v>
+      </c>
+      <c r="K2160" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2160" s="12" t="n">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" t="inlineStr">
+        <is>
+          <t>Siltcoos Lake_01158483</t>
+        </is>
+      </c>
+      <c r="B2161" t="n">
+        <v>29</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>2610000</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>337287.5625</v>
+      </c>
+      <c r="G2161" t="n">
+        <v>330977.98584</v>
+      </c>
+      <c r="H2161" t="n">
+        <v>88780.85710199999</v>
+      </c>
+      <c r="I2161" t="n">
+        <v>94763.4933304</v>
+      </c>
+      <c r="J2161" t="n">
+        <v>98</v>
+      </c>
+      <c r="K2161" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2161" s="12" t="n">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" t="inlineStr">
+        <is>
+          <t>Diamond Lake_01140999</t>
+        </is>
+      </c>
+      <c r="B2162" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>360000</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2162" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2162" t="n">
+        <v>98</v>
+      </c>
+      <c r="K2162" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2162" s="12" t="n">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" t="inlineStr">
+        <is>
+          <t>Summer Lake_01150595</t>
+        </is>
+      </c>
+      <c r="B2163" t="n">
+        <v>323</v>
+      </c>
+      <c r="C2163" t="n">
+        <v>29070000</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>654636.5</v>
+      </c>
+      <c r="G2163" t="n">
+        <v>648326.92334</v>
+      </c>
+      <c r="H2163" t="n">
+        <v>168270.765082</v>
+      </c>
+      <c r="I2163" t="n">
+        <v>121061.804386</v>
+      </c>
+      <c r="J2163" t="n">
+        <v>98</v>
+      </c>
+      <c r="K2163" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2163" s="12" t="n">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" t="inlineStr">
+        <is>
+          <t>Lake of the Woods_01161601</t>
+        </is>
+      </c>
+      <c r="B2164" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2164" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2164" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2164" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2164" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" t="inlineStr">
+        <is>
+          <t>Lake Owyhee_01125099</t>
+        </is>
+      </c>
+      <c r="B2165" t="n">
+        <v>40</v>
+      </c>
+      <c r="C2165" t="n">
+        <v>3600000</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>39084.1132812</v>
+      </c>
+      <c r="G2165" t="n">
+        <v>32774.5366211</v>
+      </c>
+      <c r="H2165" t="n">
+        <v>7954.17625732</v>
+      </c>
+      <c r="I2165" t="n">
+        <v>6638.64334904</v>
+      </c>
+      <c r="J2165" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2165" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2165" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" t="inlineStr">
+        <is>
+          <t>Brownlee Reservoir_00378278</t>
+        </is>
+      </c>
+      <c r="B2166" t="n">
+        <v>49</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>4410000</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2166" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2166" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2166" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2166" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" t="inlineStr">
+        <is>
+          <t>Wallowa Lake_01151862</t>
+        </is>
+      </c>
+      <c r="B2167" t="n">
+        <v>27</v>
+      </c>
+      <c r="C2167" t="n">
+        <v>2430000</v>
+      </c>
+      <c r="E2167" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>131825.78125</v>
+      </c>
+      <c r="G2167" t="n">
+        <v>125516.20459</v>
+      </c>
+      <c r="H2167" t="n">
+        <v>11951.0491356</v>
+      </c>
+      <c r="I2167" t="n">
+        <v>24047.3609178</v>
+      </c>
+      <c r="J2167" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2167" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2167" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" t="inlineStr">
+        <is>
+          <t>Cultus Lake_01140537</t>
+        </is>
+      </c>
+      <c r="B2168" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2168" t="n">
+        <v>1170000</v>
+      </c>
+      <c r="E2168" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>135519</v>
+      </c>
+      <c r="G2168" t="n">
+        <v>129209.42334</v>
+      </c>
+      <c r="H2168" t="n">
+        <v>38557.5354567</v>
+      </c>
+      <c r="I2168" t="n">
+        <v>45339.0975896</v>
+      </c>
+      <c r="J2168" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2168" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2168" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" t="inlineStr">
+        <is>
+          <t>Green Peter Lake_01158878</t>
+        </is>
+      </c>
+      <c r="B2169" t="n">
+        <v>14</v>
+      </c>
+      <c r="C2169" t="n">
+        <v>1260000</v>
+      </c>
+      <c r="E2169" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2169" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2169" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2169" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2169" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" t="inlineStr">
+        <is>
+          <t>Malheur Lake_01123710</t>
+        </is>
+      </c>
+      <c r="B2170" t="n">
+        <v>81</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>7290000</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>457088.5</v>
+      </c>
+      <c r="G2170" t="n">
+        <v>450778.92334</v>
+      </c>
+      <c r="H2170" t="n">
+        <v>114657.301963</v>
+      </c>
+      <c r="I2170" t="n">
+        <v>96011.14627719999</v>
+      </c>
+      <c r="J2170" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2170" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2170" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" t="inlineStr">
+        <is>
+          <t>Alkali Lake_01116863</t>
+        </is>
+      </c>
+      <c r="B2171" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>630000</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>1106624.125</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>3341951.5</v>
+      </c>
+      <c r="G2171" t="n">
+        <v>2235327.375</v>
+      </c>
+      <c r="H2171" t="n">
+        <v>1838045.28571</v>
+      </c>
+      <c r="I2171" t="n">
+        <v>680313.901751</v>
+      </c>
+      <c r="J2171" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2171" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2171" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" t="inlineStr">
+        <is>
+          <t>Gerber Reservoir_01121105</t>
+        </is>
+      </c>
+      <c r="B2172" t="n">
+        <v>69</v>
+      </c>
+      <c r="C2172" t="n">
+        <v>6210000</v>
+      </c>
+      <c r="E2172" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>524807.75</v>
+      </c>
+      <c r="G2172" t="n">
+        <v>518498.17334</v>
+      </c>
+      <c r="H2172" t="n">
+        <v>184816.841846</v>
+      </c>
+      <c r="I2172" t="n">
+        <v>132387.541664</v>
+      </c>
+      <c r="J2172" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2172" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2172" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" t="inlineStr">
+        <is>
+          <t>Aspen Lake_01161255</t>
+        </is>
+      </c>
+      <c r="B2173" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2173" t="n">
+        <v>810000</v>
+      </c>
+      <c r="E2173" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2173" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2173" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2173" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2173" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" t="inlineStr">
+        <is>
+          <t>Crater Lake_01163669</t>
+        </is>
+      </c>
+      <c r="B2174" t="n">
+        <v>475</v>
+      </c>
+      <c r="C2174" t="n">
+        <v>42750000</v>
+      </c>
+      <c r="E2174" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>586138.3125</v>
+      </c>
+      <c r="G2174" t="n">
+        <v>579828.73584</v>
+      </c>
+      <c r="H2174" t="n">
+        <v>10937.1435989</v>
+      </c>
+      <c r="I2174" t="n">
+        <v>38421.3581855</v>
+      </c>
+      <c r="J2174" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2174" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2174" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" t="inlineStr">
+        <is>
+          <t>Howard Prairie Lake_01158895</t>
+        </is>
+      </c>
+      <c r="B2175" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2175" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="E2175" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>183653.90625</v>
+      </c>
+      <c r="G2175" t="n">
+        <v>177344.32959</v>
+      </c>
+      <c r="H2175" t="n">
+        <v>27640.9338623</v>
+      </c>
+      <c r="I2175" t="n">
+        <v>44690.2238862</v>
+      </c>
+      <c r="J2175" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2175" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2175" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" t="inlineStr">
+        <is>
+          <t>Upper Klamath Lake_01151685</t>
+        </is>
+      </c>
+      <c r="B2176" t="n">
+        <v>2404</v>
+      </c>
+      <c r="C2176" t="n">
+        <v>216360000</v>
+      </c>
+      <c r="E2176" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>636795.75</v>
+      </c>
+      <c r="G2176" t="n">
+        <v>630486.17334</v>
+      </c>
+      <c r="H2176" t="n">
+        <v>23647.6532996</v>
+      </c>
+      <c r="I2176" t="n">
+        <v>49043.4737947</v>
+      </c>
+      <c r="J2176" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2176" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2176" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" t="inlineStr">
+        <is>
+          <t>Goose Lake_00224325</t>
+        </is>
+      </c>
+      <c r="B2177" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2177" t="n">
+        <v>1080000</v>
+      </c>
+      <c r="E2177" t="n">
+        <v>159955.890625</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>990832.625</v>
+      </c>
+      <c r="G2177" t="n">
+        <v>830876.734375</v>
+      </c>
+      <c r="H2177" t="n">
+        <v>626611.888021</v>
+      </c>
+      <c r="I2177" t="n">
+        <v>228458.672326</v>
+      </c>
+      <c r="J2177" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2177" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2177" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" t="inlineStr">
+        <is>
+          <t>Drews Reservoir_01141243</t>
+        </is>
+      </c>
+      <c r="B2178" t="n">
+        <v>52</v>
+      </c>
+      <c r="C2178" t="n">
+        <v>4680000</v>
+      </c>
+      <c r="E2178" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2178" t="n">
+        <v>398107.53125</v>
+      </c>
+      <c r="G2178" t="n">
+        <v>391797.95459</v>
+      </c>
+      <c r="H2178" t="n">
+        <v>137343.969107</v>
+      </c>
+      <c r="I2178" t="n">
+        <v>98681.0944951</v>
+      </c>
+      <c r="J2178" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2178" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2178" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" t="inlineStr">
+        <is>
+          <t>Renner Lake_00267175</t>
+        </is>
+      </c>
+      <c r="B2179" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2179" t="n">
+        <v>360000</v>
+      </c>
+      <c r="E2179" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>47424.2109375</v>
+      </c>
+      <c r="G2179" t="n">
+        <v>41114.6342773</v>
+      </c>
+      <c r="H2179" t="n">
+        <v>17090.2507324</v>
+      </c>
+      <c r="I2179" t="n">
+        <v>17532.4964779</v>
+      </c>
+      <c r="J2179" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2179" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2179" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" t="inlineStr">
+        <is>
+          <t>Beulah Reservoir_01117569</t>
+        </is>
+      </c>
+      <c r="B2180" t="n">
+        <v>28</v>
+      </c>
+      <c r="C2180" t="n">
+        <v>2520000</v>
+      </c>
+      <c r="E2180" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>12589.2578125</v>
+      </c>
+      <c r="G2180" t="n">
+        <v>6279.68115234</v>
+      </c>
+      <c r="H2180" t="n">
+        <v>6659.13330078</v>
+      </c>
+      <c r="I2180" t="n">
+        <v>1313.64372884</v>
+      </c>
+      <c r="J2180" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2180" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2180" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" t="inlineStr">
+        <is>
+          <t>Warm Springs Reservoir_01128656</t>
+        </is>
+      </c>
+      <c r="B2181" t="n">
+        <v>66</v>
+      </c>
+      <c r="C2181" t="n">
+        <v>5940000</v>
+      </c>
+      <c r="E2181" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>52966.3710938</v>
+      </c>
+      <c r="G2181" t="n">
+        <v>46656.7944336</v>
+      </c>
+      <c r="H2181" t="n">
+        <v>9541.40604285</v>
+      </c>
+      <c r="I2181" t="n">
+        <v>10937.4437808</v>
+      </c>
+      <c r="J2181" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2181" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2181" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" t="inlineStr">
+        <is>
+          <t>Thief Valley Reservoir_01128007</t>
+        </is>
+      </c>
+      <c r="B2182" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2182" t="n">
+        <v>540000</v>
+      </c>
+      <c r="E2182" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2182" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2182" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2182" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2182" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" t="inlineStr">
+        <is>
+          <t>Upper Cow Lake_01119431</t>
+        </is>
+      </c>
+      <c r="B2183" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2183" t="n">
+        <v>1080000</v>
+      </c>
+      <c r="E2183" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>164437.203125</v>
+      </c>
+      <c r="G2183" t="n">
+        <v>158127.626465</v>
+      </c>
+      <c r="H2183" t="n">
+        <v>57360.5117188</v>
+      </c>
+      <c r="I2183" t="n">
+        <v>50470.1841022</v>
+      </c>
+      <c r="J2183" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2183" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2183" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" t="inlineStr">
+        <is>
+          <t>McKay Reservoir_01132097</t>
+        </is>
+      </c>
+      <c r="B2184" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2184" t="n">
+        <v>540000</v>
+      </c>
+      <c r="E2184" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>229086.84375</v>
+      </c>
+      <c r="G2184" t="n">
+        <v>222777.26709</v>
+      </c>
+      <c r="H2184" t="n">
+        <v>95745.1398926</v>
+      </c>
+      <c r="I2184" t="n">
+        <v>95213.157187</v>
+      </c>
+      <c r="J2184" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2184" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2184" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" t="inlineStr">
+        <is>
+          <t>Lake Billy Chinook_01138120</t>
+        </is>
+      </c>
+      <c r="B2185" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2185" t="n">
+        <v>270000</v>
+      </c>
+      <c r="E2185" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2185" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2185" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2185" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2185" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" t="inlineStr">
+        <is>
+          <t>Crane Prairie Reservoir_01140386</t>
+        </is>
+      </c>
+      <c r="B2186" t="n">
+        <v>105</v>
+      </c>
+      <c r="C2186" t="n">
+        <v>9450000</v>
+      </c>
+      <c r="E2186" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>277971.46875</v>
+      </c>
+      <c r="G2186" t="n">
+        <v>271661.89209</v>
+      </c>
+      <c r="H2186" t="n">
+        <v>11689.8802409</v>
+      </c>
+      <c r="I2186" t="n">
+        <v>30134.31173</v>
+      </c>
+      <c r="J2186" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2186" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2186" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" t="inlineStr">
+        <is>
+          <t>Wickiup Reservoir_01161711</t>
+        </is>
+      </c>
+      <c r="B2187" t="n">
+        <v>102</v>
+      </c>
+      <c r="C2187" t="n">
+        <v>9180000</v>
+      </c>
+      <c r="E2187" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>654636.5</v>
+      </c>
+      <c r="G2187" t="n">
+        <v>648326.92334</v>
+      </c>
+      <c r="H2187" t="n">
+        <v>45443.0935011</v>
+      </c>
+      <c r="I2187" t="n">
+        <v>87555.95622219999</v>
+      </c>
+      <c r="J2187" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2187" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2187" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" t="inlineStr">
+        <is>
+          <t>Davis Lake_01140666</t>
+        </is>
+      </c>
+      <c r="B2188" t="n">
+        <v>69</v>
+      </c>
+      <c r="C2188" t="n">
+        <v>6210000</v>
+      </c>
+      <c r="E2188" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>524807.75</v>
+      </c>
+      <c r="G2188" t="n">
+        <v>518498.17334</v>
+      </c>
+      <c r="H2188" t="n">
+        <v>53242.8362559</v>
+      </c>
+      <c r="I2188" t="n">
+        <v>102944.454086</v>
+      </c>
+      <c r="J2188" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2188" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2188" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" t="inlineStr">
+        <is>
+          <t>Odell Lake_01147159</t>
+        </is>
+      </c>
+      <c r="B2189" t="n">
+        <v>84</v>
+      </c>
+      <c r="C2189" t="n">
+        <v>7560000</v>
+      </c>
+      <c r="E2189" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2189" t="n">
+        <v>89536.5078125</v>
+      </c>
+      <c r="G2189" t="n">
+        <v>83226.93115230001</v>
+      </c>
+      <c r="H2189" t="n">
+        <v>10086.3346994</v>
+      </c>
+      <c r="I2189" t="n">
+        <v>16013.4018941</v>
+      </c>
+      <c r="J2189" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2189" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2189" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" t="inlineStr">
+        <is>
+          <t>Paulina Lake_01147502</t>
+        </is>
+      </c>
+      <c r="B2190" t="n">
+        <v>32</v>
+      </c>
+      <c r="C2190" t="n">
+        <v>2880000</v>
+      </c>
+      <c r="E2190" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2190" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2190" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2190" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2190" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2190" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" t="inlineStr">
+        <is>
+          <t>Crescent Lake_01158186</t>
+        </is>
+      </c>
+      <c r="B2191" t="n">
+        <v>110</v>
+      </c>
+      <c r="C2191" t="n">
+        <v>9900000</v>
+      </c>
+      <c r="E2191" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2191" t="n">
+        <v>255858.734375</v>
+      </c>
+      <c r="G2191" t="n">
+        <v>249549.157715</v>
+      </c>
+      <c r="H2191" t="n">
+        <v>22669.4850053</v>
+      </c>
+      <c r="I2191" t="n">
+        <v>49134.4131969</v>
+      </c>
+      <c r="J2191" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2191" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2191" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" t="inlineStr">
+        <is>
+          <t>Cold Springs Reservoir_01119125</t>
+        </is>
+      </c>
+      <c r="B2192" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2192" t="n">
+        <v>2160000</v>
+      </c>
+      <c r="E2192" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2192" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2192" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2192" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2192" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2192" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" t="inlineStr">
+        <is>
+          <t>Lake Umatilla_01513298</t>
+        </is>
+      </c>
+      <c r="B2193" t="n">
+        <v>406</v>
+      </c>
+      <c r="C2193" t="n">
+        <v>36540000</v>
+      </c>
+      <c r="E2193" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2193" t="n">
+        <v>409260.84375</v>
+      </c>
+      <c r="G2193" t="n">
+        <v>402951.26709</v>
+      </c>
+      <c r="H2193" t="n">
+        <v>13174.0050632</v>
+      </c>
+      <c r="I2193" t="n">
+        <v>43199.8600588</v>
+      </c>
+      <c r="J2193" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2193" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2193" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" t="inlineStr">
+        <is>
+          <t>Cottage Grove Lake_01158179</t>
+        </is>
+      </c>
+      <c r="B2194" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2194" t="n">
+        <v>360000</v>
+      </c>
+      <c r="E2194" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2194" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2194" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2194" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2194" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2194" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" t="inlineStr">
+        <is>
+          <t>Fern Ridge Lake_01120678</t>
+        </is>
+      </c>
+      <c r="B2195" t="n">
+        <v>82</v>
+      </c>
+      <c r="C2195" t="n">
+        <v>7380000</v>
+      </c>
+      <c r="E2195" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2195" t="n">
+        <v>432513.96875</v>
+      </c>
+      <c r="G2195" t="n">
+        <v>426204.39209</v>
+      </c>
+      <c r="H2195" t="n">
+        <v>21206.7697397</v>
+      </c>
+      <c r="I2195" t="n">
+        <v>76534.33740420001</v>
+      </c>
+      <c r="J2195" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2195" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2195" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" t="inlineStr">
+        <is>
+          <t>Hills Creek Lake_01158881</t>
+        </is>
+      </c>
+      <c r="B2196" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2196" t="n">
+        <v>270000</v>
+      </c>
+      <c r="E2196" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2196" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2196" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2196" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2196" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2196" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" t="inlineStr">
+        <is>
+          <t>Dexter Reservoir_01119918</t>
+        </is>
+      </c>
+      <c r="B2197" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2197" t="n">
+        <v>270000</v>
+      </c>
+      <c r="E2197" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2197" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2197" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2197" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2197" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2197" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" t="inlineStr">
+        <is>
+          <t>Waldo Lake_01151818</t>
+        </is>
+      </c>
+      <c r="B2198" t="n">
+        <v>65</v>
+      </c>
+      <c r="C2198" t="n">
+        <v>5850000</v>
+      </c>
+      <c r="E2198" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2198" t="n">
+        <v>409260.84375</v>
+      </c>
+      <c r="G2198" t="n">
+        <v>402951.26709</v>
+      </c>
+      <c r="H2198" t="n">
+        <v>20139.2934796</v>
+      </c>
+      <c r="I2198" t="n">
+        <v>60511.5432803</v>
+      </c>
+      <c r="J2198" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2198" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2198" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" t="inlineStr">
+        <is>
+          <t>Detroit Lake_01639301</t>
+        </is>
+      </c>
+      <c r="B2199" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2199" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E2199" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2199" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2199" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2199" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2199" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2199" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" t="inlineStr">
+        <is>
+          <t>Sturgeon Lake_01127681</t>
+        </is>
+      </c>
+      <c r="B2200" t="n">
+        <v>28</v>
+      </c>
+      <c r="C2200" t="n">
+        <v>2520000</v>
+      </c>
+      <c r="E2200" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2200" t="n">
+        <v>210862.984375</v>
+      </c>
+      <c r="G2200" t="n">
+        <v>204553.407715</v>
+      </c>
+      <c r="H2200" t="n">
+        <v>17269.8069545</v>
+      </c>
+      <c r="I2200" t="n">
+        <v>41811.9094639</v>
+      </c>
+      <c r="J2200" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2200" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2200" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" t="inlineStr">
+        <is>
+          <t>Lost Creek Lake_01158890</t>
+        </is>
+      </c>
+      <c r="B2201" t="n">
+        <v>45</v>
+      </c>
+      <c r="C2201" t="n">
+        <v>4050000</v>
+      </c>
+      <c r="E2201" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2201" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2201" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2201" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2201" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2201" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" t="inlineStr">
+        <is>
+          <t>Siltcoos Lake_01158483</t>
+        </is>
+      </c>
+      <c r="B2202" t="n">
+        <v>23</v>
+      </c>
+      <c r="C2202" t="n">
+        <v>2070000</v>
+      </c>
+      <c r="E2202" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2202" t="n">
+        <v>270395.9375</v>
+      </c>
+      <c r="G2202" t="n">
+        <v>264086.36084</v>
+      </c>
+      <c r="H2202" t="n">
+        <v>80476.5299125</v>
+      </c>
+      <c r="I2202" t="n">
+        <v>75356.83956930001</v>
+      </c>
+      <c r="J2202" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2202" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2202" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" t="inlineStr">
+        <is>
+          <t>Diamond Lake_01140999</t>
+        </is>
+      </c>
+      <c r="B2203" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2203" t="n">
+        <v>810000</v>
+      </c>
+      <c r="E2203" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2203" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2203" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2203" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2203" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2203" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" t="inlineStr">
+        <is>
+          <t>Summer Lake_01150595</t>
+        </is>
+      </c>
+      <c r="B2204" t="n">
+        <v>433</v>
+      </c>
+      <c r="C2204" t="n">
+        <v>38970000</v>
+      </c>
+      <c r="E2204" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2204" t="n">
+        <v>751623.1875</v>
+      </c>
+      <c r="G2204" t="n">
+        <v>745313.61084</v>
+      </c>
+      <c r="H2204" t="n">
+        <v>248017.317188</v>
+      </c>
+      <c r="I2204" t="n">
+        <v>147555.005789</v>
+      </c>
+      <c r="J2204" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2204" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2204" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" t="inlineStr">
+        <is>
+          <t>Lake Abert_01116755</t>
+        </is>
+      </c>
+      <c r="B2205" t="n">
+        <v>118</v>
+      </c>
+      <c r="C2205" t="n">
+        <v>10620000</v>
+      </c>
+      <c r="E2205" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2205" t="n">
+        <v>816582.6875</v>
+      </c>
+      <c r="G2205" t="n">
+        <v>810273.11084</v>
+      </c>
+      <c r="H2205" t="n">
+        <v>178659.346647</v>
+      </c>
+      <c r="I2205" t="n">
+        <v>141030.303094</v>
+      </c>
+      <c r="J2205" t="n">
+        <v>99</v>
+      </c>
+      <c r="K2205" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2205" s="12" t="n">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" t="inlineStr">
+        <is>
+          <t>Brownlee Reservoir_00378278</t>
+        </is>
+      </c>
+      <c r="B2206" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2206" t="n">
+        <v>450000</v>
+      </c>
+      <c r="D2206" t="inlineStr"/>
+      <c r="E2206" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="F2206" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="G2206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2206" t="n">
+        <v>6309.57666016</v>
+      </c>
+      <c r="I2206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2206" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2206" t="n">
+        <v>2022</v>
+      </c>
+      <c r="L2206" s="12" t="n">
+        <v>44661</v>
       </c>
     </row>
   </sheetData>
